--- a/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>FOSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="E7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>711600</v>
+      </c>
+      <c r="E8" s="3">
         <v>539500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>501400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>465300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>786900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>608800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>576600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>569200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>920800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>688700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>596800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>581800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>959200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>738000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>403700</v>
+      </c>
+      <c r="E9" s="3">
         <v>260900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>236300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>217300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>370000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>282300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>267600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>281500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>472700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>368800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>295500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>292300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>470100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>307900</v>
+      </c>
+      <c r="E10" s="3">
         <v>278600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>265100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>248000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>416900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>326500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>309000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>287700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>448100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>319900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>301300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>289500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>489100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>385100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +985,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E14" s="3">
         <v>25100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>11000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>21000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>23500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>416900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>26300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>13300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1025,10 +1047,10 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
         <v>400</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1039,8 +1061,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>715600</v>
+      </c>
+      <c r="E17" s="3">
         <v>548600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>499700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>485200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>719600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>586200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>575600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>598100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>869600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>689200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1026600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>627100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>893000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>706800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>67300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-28900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>51200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-429800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-45300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>66200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1210,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>25900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>16100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>93100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>35800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>15500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-14200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>72900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>22800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-406600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-18700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>95200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>56300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="E22" s="3">
         <v>7400</v>
       </c>
       <c r="F22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G22" s="3">
         <v>8100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>61800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-40900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>42400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-439400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-48000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>66300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>6900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>87000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-96300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>47900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-47500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-44600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-343100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-46800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>50800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-25900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>47600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-48300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-46300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-344700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-48200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>49700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,11 +1660,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-33600</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-25900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-25900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>47600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-48300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-79900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-344700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-48200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>49700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-25900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>47600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-48300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-79900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-344700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-48200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>49700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="E38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200200</v>
+      </c>
+      <c r="E41" s="3">
         <v>147500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>226600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>271400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>403400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>236100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>241800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>229900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>231200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>166900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>319800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>320700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>297300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>236000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2144,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>289700</v>
+      </c>
+      <c r="E43" s="3">
         <v>247600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>204200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>199900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>328000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>261700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>204700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>234200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>367000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>310900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>240400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>245300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>375500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>452300</v>
+      </c>
+      <c r="E44" s="3">
         <v>570300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>460300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>384100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>377600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>521300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>497800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>530700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>573800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>683000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>618100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>571500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>542500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>117200</v>
+      </c>
+      <c r="E45" s="3">
         <v>126400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>124400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>133100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>149600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>129400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>125000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>161700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>118900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>125500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>126500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>142800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>132000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>132700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1059500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1091700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1015500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>988500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1258600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1148500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1069300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1156400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1291000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1286300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1304800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1280300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1347300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1389600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2240,7 +2344,7 @@
         <v>7000</v>
       </c>
       <c r="E47" s="3">
-        <v>7600</v>
+        <v>7000</v>
       </c>
       <c r="F47" s="3">
         <v>7600</v>
@@ -2249,7 +2353,7 @@
         <v>7600</v>
       </c>
       <c r="H47" s="3">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="I47" s="3">
         <v>1000</v>
@@ -2261,13 +2365,13 @@
         <v>1000</v>
       </c>
       <c r="L47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M47" s="3">
         <v>900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7400</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -2275,96 +2379,105 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>439700</v>
+      </c>
+      <c r="E48" s="3">
         <v>447100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>470600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>484700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>183200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>190600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>200100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>208500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>219700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>243400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>255800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>260400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>273900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>290800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E49" s="3">
         <v>28000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>46400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>48100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>68300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>71300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>74300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>83900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>86700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>89500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>92500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>499800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>502400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>515800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E52" s="3">
         <v>66800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>68100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>61100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>57600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>58100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>61600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>65900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>59900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>130100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>115500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>61100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>63400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>61500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1604700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1640600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1608200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1589900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1575200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1469500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1406200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1515700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1658400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1750400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1776000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2101700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2186900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2257600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,87 +2748,91 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>172200</v>
+      </c>
+      <c r="E57" s="3">
         <v>193000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>178500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>138300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>169600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>159400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>139500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>133700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>205000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>248800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>163500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>151200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>163600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>193600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E58" s="3">
         <v>21900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>66400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>65900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>126400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>128000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>127700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>127100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>40200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>32700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>26400</v>
       </c>
       <c r="O58" s="3">
         <v>26400</v>
@@ -2707,184 +2840,199 @@
       <c r="P58" s="3">
         <v>26400</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>360800</v>
+      </c>
+      <c r="E59" s="3">
         <v>314300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>282700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>292400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>309800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>283800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>240300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>263100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>302000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>264500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>217800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>209100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>224600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>204200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>559200</v>
+      </c>
+      <c r="E60" s="3">
         <v>529100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>527600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>496500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>605800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>571200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>507500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>523900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>509100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>553500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>414100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>386700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>414600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>178800</v>
+      </c>
+      <c r="E61" s="3">
         <v>242100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>162000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>161100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>269800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>269100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>268400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>335500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>443900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>444300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>613600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>589700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>610000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>697400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>362900</v>
+      </c>
+      <c r="E62" s="3">
         <v>359500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>379000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>383000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>111000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>99600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>113500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>129700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>124400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>99600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>93500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>142900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>146900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>151100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1101700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1131400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1069000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1044200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>989700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>942700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>891200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>994200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1082200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1109100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1132900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1129800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1180700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1284900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>299800</v>
+      </c>
+      <c r="E72" s="3">
         <v>306700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>332600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>339900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>381600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>332000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>327000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>334800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>409700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>489500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>494900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>839600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>887800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>838100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>503100</v>
+      </c>
+      <c r="E76" s="3">
         <v>509300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>539200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>545700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>585500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>526800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>515000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>521400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>576100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>641300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>643000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>971900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1006200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>972700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="E80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-25900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>47600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-48300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-79900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-344700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-48200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>49700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E83" s="3">
         <v>13500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>14400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>15100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>19400</v>
       </c>
       <c r="L83" s="3">
         <v>19400</v>
       </c>
       <c r="M83" s="3">
+        <v>19400</v>
+      </c>
+      <c r="N83" s="3">
         <v>21200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-112100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-33700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>175700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>81700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>119400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>24800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-16000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>51400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>150800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>35300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-66300</v>
+      </c>
+      <c r="E100" s="3">
         <v>36300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-172400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-71700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>12000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-45200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-162900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>28500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-22000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-92600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-2300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-79400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-44600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-131800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>173100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>64300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-152900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>23500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>61400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>FOSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,243 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43925</v>
+      </c>
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>390700</v>
+      </c>
+      <c r="F8" s="3">
         <v>711600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>539500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>501400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>465300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>786900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>608800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>576600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>569200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>920800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>688700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>596800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>581800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>959200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>738000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>118400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>250400</v>
+      </c>
+      <c r="F9" s="3">
         <v>403700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>260900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>236300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>217300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>370000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>282300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>267600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>281500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>472700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>368800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>295500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>292300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>470100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>140600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>140300</v>
+      </c>
+      <c r="F10" s="3">
         <v>307900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>278600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>265100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>248000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>416900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>326500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>309000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>287700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>448100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>319900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>301300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>289500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>489100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>385100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +919,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +968,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,55 +1021,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F14" s="3">
         <v>12800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>25100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>9000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>11000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>4800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>6200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>21000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>23500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>6400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>5800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>416900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>26300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>13300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1050,13 +1095,13 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
         <v>400</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1064,11 +1109,11 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1082,8 +1127,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1149,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>295800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>525100</v>
+      </c>
+      <c r="F17" s="3">
         <v>715600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>548600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>499700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>485200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>719600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>586200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>575600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>598100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>869600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>689200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1026600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>627100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>893000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>706800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-134400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-9100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-19900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>67300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>22600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-28900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>51200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-429800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-45300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>66200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1276,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F20" s="3">
         <v>5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>25900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>5300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>7600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-129400</v>
+      </c>
+      <c r="F21" s="3">
         <v>14000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>16100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>20400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>93100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>35800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>15500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-14200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>72900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>22800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-406600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-18700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>95200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>56300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F22" s="3">
         <v>7000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>7400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>7400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>8100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>10800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>9900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>11100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>10700</v>
       </c>
       <c r="L22" s="3">
         <v>11100</v>
       </c>
       <c r="M22" s="3">
+        <v>10700</v>
+      </c>
+      <c r="N22" s="3">
+        <v>11100</v>
+      </c>
+      <c r="O22" s="3">
         <v>12100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>11600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>8400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>7500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-149100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-18000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-5200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>61800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>9900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-10600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-40900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>42400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-8700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-439400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-48000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>66300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>6900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>9600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>13900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>3900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-3400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>6600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>87000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-3200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-96300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>15500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1590,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-24900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-11800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>47900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>5900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-7200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-47500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-44600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-343100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-46800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>50800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-85600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-25900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-7300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-12200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>47600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-7800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-48300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-46300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-344700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-48200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>49700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1749,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1663,14 +1784,14 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>-33600</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>-33600</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1802,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1855,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1908,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-25900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-5300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-85600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-25900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-7300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-12200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>47600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-7800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-48300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-79900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-344700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-48200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>49700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2067,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-85600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-25900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-7300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-12200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>47600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-7800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-48300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-79900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-344700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-48200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>49700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43925</v>
+      </c>
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2203,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2224,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>277600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>245400</v>
+      </c>
+      <c r="F41" s="3">
         <v>200200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>147500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>226600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>271400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>403400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>236100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>241800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>229900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>231200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>166900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>319800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>320700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>297300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>236000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,219 +2326,249 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>130100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>153400</v>
+      </c>
+      <c r="F43" s="3">
         <v>289700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>247600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>204200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>199900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>328000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>261700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>204700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>234200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>367000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>310900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>240400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>245300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>375500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>375900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>439700</v>
+      </c>
+      <c r="F44" s="3">
         <v>452300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>570300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>460300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>384100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>377600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>521300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>497800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>530700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>573800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>683000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>618100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>571500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>542500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>128600</v>
+      </c>
+      <c r="F45" s="3">
         <v>117200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>126400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>124400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>133100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>149600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>129400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>125000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>161700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>118900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>125500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>126500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>142800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>132000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>132700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>881700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>967100</v>
+      </c>
+      <c r="F46" s="3">
         <v>1059500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1091700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1015500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>988500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1258600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1148500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1069300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1156400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1291000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1286300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1304800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1280300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1347300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1389600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>67000</v>
+      </c>
+      <c r="F47" s="3">
         <v>7000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>7000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>7600</v>
-      </c>
-      <c r="G47" s="3">
-        <v>7600</v>
       </c>
       <c r="H47" s="3">
         <v>7600</v>
       </c>
       <c r="I47" s="3">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="J47" s="3">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="K47" s="3">
         <v>1000</v>
@@ -2368,116 +2577,134 @@
         <v>1000</v>
       </c>
       <c r="M47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O47" s="3">
         <v>900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>7400</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>387200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>407800</v>
+      </c>
+      <c r="F48" s="3">
         <v>439700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>447100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>470600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>484700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>183200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>190600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>200100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>208500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>219700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>243400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>255800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>260400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>273900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>290800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>22400</v>
+      </c>
+      <c r="F49" s="3">
         <v>26900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>28000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>46400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>48100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>68300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>71300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>74300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>83900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>86700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>89500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>92500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>499800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>502400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>515800</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2750,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2803,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>71300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>68200</v>
+      </c>
+      <c r="F52" s="3">
         <v>71700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>66800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>68100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>61100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>57600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>58100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>61600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>65900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>59900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>130100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>115500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>61100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>63400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>61500</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2909,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1451300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1532600</v>
+      </c>
+      <c r="F54" s="3">
         <v>1604700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1640600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1608200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1589900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1575200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1469500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1406200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1515700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1658400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1750400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1776000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2101700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2186900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2257600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2987,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +3008,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>132700</v>
+      </c>
+      <c r="F57" s="3">
         <v>172200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>193000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>178500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>138300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>169600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>159400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>139500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>133700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>205000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>248800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>163500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>151200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>163600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>193600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F58" s="3">
         <v>26200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>21900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>66400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>65900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>126400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>128000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>127700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>127100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>40200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>32700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>26400</v>
-      </c>
-      <c r="P58" s="3">
-        <v>26400</v>
       </c>
       <c r="Q58" s="3">
         <v>26400</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>26400</v>
+      </c>
+      <c r="S58" s="3">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>310600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>309400</v>
+      </c>
+      <c r="F59" s="3">
         <v>360800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>314300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>282700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>292400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>309800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>283800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>240300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>263100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>302000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>264500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>217800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>209100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>224600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>204200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>463700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>463200</v>
+      </c>
+      <c r="F60" s="3">
         <v>559200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>529100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>527600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>496500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>605800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>571200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>507500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>523900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>509100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>553500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>414100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>386700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>414600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>243900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>298500</v>
+      </c>
+      <c r="F61" s="3">
         <v>178800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>242100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>162000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>161100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>269800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>269100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>268400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>335500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>443900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>444300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>613600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>589700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>610000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>697400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>347100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>354500</v>
+      </c>
+      <c r="F62" s="3">
         <v>362900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>359500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>379000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>383000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>111000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>99600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>113500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>129700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>124400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>99600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>93500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>142900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>146900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>151100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3375,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3428,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3481,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1055300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1117100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1101700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1131400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1069000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1044200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>989700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>942700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>891200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>994200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1082200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1109100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1132900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1129800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1180700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1284900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3559,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3608,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3661,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3714,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3767,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>191700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>214200</v>
+      </c>
+      <c r="F72" s="3">
         <v>299800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>306700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>332600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>339900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>381600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>332000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>327000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>334800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>409700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>489500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>494900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>839600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>887800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>838100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3873,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3926,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3979,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>396100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>415400</v>
+      </c>
+      <c r="F76" s="3">
         <v>503100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>509300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>539200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>545700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>585500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>526800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>515000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>521400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>576100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>641300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>643000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>971900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1006200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>972700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4085,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43925</v>
+      </c>
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-85600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-25900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-7300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-12200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>47600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-7800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-48300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-79900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-344700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-48200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>49700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4221,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F83" s="3">
         <v>12900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>13500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>13900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>14400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>20400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>16100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>15100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>16000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>19400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>19400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>21200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>20900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>21400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4323,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4376,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4429,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4482,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4535,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="F89" s="3">
         <v>124000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-112100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-33700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>7600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>175700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>81700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-4300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>119400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>24800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-16000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>51400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>150800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4613,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-6800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-6600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-7800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-8300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-4500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-8400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-8800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4715,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4768,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-4900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>35300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-8500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-7800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-4300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4846,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4895,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4948,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5001,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +5054,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>112300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-66300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>36300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-6100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-172400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-71700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>12000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-45200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-162900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>28500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-22000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-92600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F101" s="3">
         <v>2600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-2300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>4800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>3500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>4700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-3600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-10600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-5600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>10800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F102" s="3">
         <v>52700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-79400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-44600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-131800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>173100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-5800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>11900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>64300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-152900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>23500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>61400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>FOSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,255 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43925</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>435500</v>
+      </c>
+      <c r="E8" s="3">
         <v>259000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>390700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>711600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>539500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>501400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>465300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>786900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>608800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>576600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>569200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>920800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>688700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>596800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>581800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>959200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>738000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>205700</v>
+      </c>
+      <c r="E9" s="3">
         <v>118400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>250400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>403700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>260900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>236300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>217300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>370000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>282300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>267600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>281500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>472700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>368800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>295500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>292300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>470100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>229800</v>
+      </c>
+      <c r="E10" s="3">
         <v>140600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>140300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>307900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>278600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>265100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>248000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>416900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>326500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>309000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>287700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>448100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>319900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>301300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>289500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>489100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>385100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,8 +933,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -974,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,61 +1043,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E14" s="3">
         <v>14100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>28600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>25100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>11000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>21000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>23500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>416900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>26300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>13300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1101,10 +1123,10 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3">
         <v>400</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1115,8 +1137,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1133,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1176,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E17" s="3">
         <v>295800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>525100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>715600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>548600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>499700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>485200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>719600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>586200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>575600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>598100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>869600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>689200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1026600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>627100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>893000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>706800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-36800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-134400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>67300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-28900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>51200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-429800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-45300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>66200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,273 +1310,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>25900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-25200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-129400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>16100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>93100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>35800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>15500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-14200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>72900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-406600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-18700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>95200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>56300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E22" s="3">
         <v>7900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>7400</v>
       </c>
       <c r="H22" s="3">
         <v>7400</v>
       </c>
       <c r="I22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J22" s="3">
         <v>8100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-43800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-149100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>61800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-40900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>42400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-439400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-48000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>66300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-20800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-63700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>87000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-96300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1644,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-85400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-24900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>47900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-47500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-44600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-343100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-46800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>50800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-22500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-85600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-25900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>47600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-48300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-46300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-344700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-48200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>49700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1790,11 +1850,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-33600</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1808,8 +1868,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1980,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-25900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-22500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-85600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-25900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>47600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-48300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-79900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-344700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-48200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>49700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2148,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-22500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-85600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-25900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>47600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-48300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-79900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-344700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-48200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>49700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43925</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,61 +2311,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>323600</v>
+      </c>
+      <c r="E41" s="3">
         <v>277600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>245400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>147500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>226600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>271400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>403400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>236100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>241800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>229900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>231200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>166900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>319800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>320700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>297300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>236000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,237 +2421,252 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>189800</v>
+      </c>
+      <c r="E43" s="3">
         <v>130100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>153400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>289700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>247600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>204200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>199900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>328000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>261700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>204700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>234200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>367000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>310900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>240400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>245300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>375500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>359500</v>
+      </c>
+      <c r="E44" s="3">
         <v>375900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>439700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>452300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>570300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>460300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>384100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>377600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>521300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>497800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>530700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>573800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>683000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>618100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>571500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>542500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>134900</v>
+      </c>
+      <c r="E45" s="3">
         <v>98100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>128600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>117200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>126400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>124400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>133100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>149600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>129400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>125000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>161700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>118900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>125500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>126500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>142800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>132000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>132700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1007800</v>
+      </c>
+      <c r="E46" s="3">
         <v>881700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>967100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1059500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1091700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1015500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>988500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1258600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1148500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1069300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1156400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1291000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1286300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1304800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1280300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1347300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1389600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E47" s="3">
         <v>90400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>67000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>7000</v>
       </c>
       <c r="G47" s="3">
         <v>7000</v>
       </c>
       <c r="H47" s="3">
-        <v>7600</v>
+        <v>7000</v>
       </c>
       <c r="I47" s="3">
         <v>7600</v>
@@ -2571,7 +2675,7 @@
         <v>7600</v>
       </c>
       <c r="K47" s="3">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="L47" s="3">
         <v>1000</v>
@@ -2583,13 +2687,13 @@
         <v>1000</v>
       </c>
       <c r="O47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P47" s="3">
         <v>900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7400</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
@@ -2597,114 +2701,123 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>363000</v>
+      </c>
+      <c r="E48" s="3">
         <v>387200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>407800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>439700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>447100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>470600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>484700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>183200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>190600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>200100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>208500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>219700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>243400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>255800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>260400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>273900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>290800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E49" s="3">
         <v>20800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>22400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>26900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>28000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>46400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>48100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>68300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>71300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>74300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>83900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>86700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>89500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>92500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>499800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>502400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>515800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,61 +2925,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E52" s="3">
         <v>71300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>68200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>71700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>66800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>68100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>61100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>57600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>58100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>61600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>65900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>59900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>130100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>115500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>61100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>63400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>61500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3037,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1522300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1451300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1532600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1604700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1640600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1608200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1589900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1575200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1469500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1406200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1515700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1658400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1750400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1776000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2101700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2186900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2257600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,105 +3139,109 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>213100</v>
+      </c>
+      <c r="E57" s="3">
         <v>127900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>132700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>172200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>193000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>178500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>138300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>169600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>159400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>139500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>133700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>205000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>248800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>163500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>151200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>163600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>193600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E58" s="3">
         <v>25200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>21100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>26200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>21900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>66400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>65900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>126400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>128000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>127700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>127100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>40200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>32700</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>26400</v>
       </c>
       <c r="R58" s="3">
         <v>26400</v>
@@ -3116,220 +3249,235 @@
       <c r="S58" s="3">
         <v>26400</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>315400</v>
+      </c>
+      <c r="E59" s="3">
         <v>310600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>309400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>360800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>314300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>282700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>292400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>309800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>283800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>240300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>263100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>302000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>264500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>217800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>209100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>224600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>204200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>549900</v>
+      </c>
+      <c r="E60" s="3">
         <v>463700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>463200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>559200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>529100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>527600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>496500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>605800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>571200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>507500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>523900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>509100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>553500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>414100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>386700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>414600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E61" s="3">
         <v>243900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>298500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>178800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>242100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>162000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>161100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>269800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>269100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>268400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>335500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>443900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>444300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>613600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>589700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>610000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>697400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>331000</v>
+      </c>
+      <c r="E62" s="3">
         <v>347100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>354500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>362900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>359500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>379000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>383000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>111000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>99600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>113500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>129700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>124400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>99600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>93500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>142900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>146900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>151100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3641,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1099500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1055300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1117100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1101700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1131400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1069000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1044200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>989700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>942700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>891200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>994200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1082200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1109100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1132900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1129800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1180700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1284900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3943,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>207700</v>
+      </c>
+      <c r="E72" s="3">
         <v>191700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>214200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>299800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>306700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>332600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>339900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>381600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>332000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>327000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>334800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>409700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>489500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>494900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>839600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>887800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>838100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4167,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>422800</v>
+      </c>
+      <c r="E76" s="3">
         <v>396100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>415400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>503100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>509300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>539200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>545700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>585500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>526800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>515000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>521400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>576100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>641300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>643000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>971900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1006200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>972700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4279,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43925</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-22500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-85600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-25900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>47600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-48300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-79900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-344700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-48200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>49700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4420,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E83" s="3">
         <v>10700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>19400</v>
       </c>
       <c r="O83" s="3">
         <v>19400</v>
       </c>
       <c r="P83" s="3">
+        <v>19400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>21200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4754,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>84200</v>
+      </c>
+      <c r="E89" s="3">
         <v>88800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-77100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>124000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-112100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-33700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>175700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>81700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>119400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>24800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>51400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>150800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4834,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5000,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>35300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,163 +5302,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-53700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>112300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-66300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>36300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-172400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-71700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>12000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-45200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-162900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>28500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-22000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-92600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>12500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-10600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E102" s="3">
         <v>32500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>44500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>52700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-79400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-44600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-131800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>173100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>64300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-152900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>23500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>61400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>FOSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,255 +665,267 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
         <v>44107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43925</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>528100</v>
+      </c>
+      <c r="E8" s="3">
         <v>435500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>259000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>390700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>711600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>539500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>501400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>465300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>786900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>608800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>576600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>569200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>920800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>688700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>596800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>581800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>959200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>738000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>268500</v>
+      </c>
+      <c r="E9" s="3">
         <v>205700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>118400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>250400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>403700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>260900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>236300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>217300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>370000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>282300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>267600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>281500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>472700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>368800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>295500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>292300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>470100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>259600</v>
+      </c>
+      <c r="E10" s="3">
         <v>229800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>140600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>140300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>307900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>278600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>265100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>248000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>416900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>326500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>309000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>287700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>448100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>319900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>301300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>289500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>489100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>385100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -934,8 +946,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,8 +1003,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,64 +1062,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E14" s="3">
         <v>9700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>28600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>25100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>21000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>23500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>416900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>26300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>13300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1126,10 +1148,10 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
         <v>400</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1140,8 +1162,8 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1158,8 +1180,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,120 +1202,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>509800</v>
+      </c>
+      <c r="E17" s="3">
         <v>418000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>295800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>525100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>715600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>548600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>499700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>485200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>719600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>586200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>575600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>598100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>869600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>689200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1026600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>627100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>893000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>706800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E18" s="3">
         <v>17500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-36800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-134400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>67300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-28900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>51200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-429800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-45300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>66200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,288 +1343,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>25900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E21" s="3">
         <v>27800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-25200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-129400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>93100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>35800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>15500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-14200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>72900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-406600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-18700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>95200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>56300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E22" s="3">
         <v>8000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>7400</v>
       </c>
       <c r="I22" s="3">
         <v>7400</v>
       </c>
       <c r="J22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K22" s="3">
         <v>8100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E23" s="3">
         <v>9500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-43800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-149100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>61800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-40900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>42400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-439400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-48000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>66300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-20800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-63700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>87000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-96300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,120 +1695,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E26" s="3">
         <v>16200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-85400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-24900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>47900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-47500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-44600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-343100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-46800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>50800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>16000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-22500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-85600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-25900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>47600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-48300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-46300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-344700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-48200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>49700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1872,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1853,11 +1913,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-33600</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1871,8 +1931,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,120 +2049,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-25900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>16000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-22500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-85600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-25900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>47600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-48300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-79900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-344700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-48200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>49700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,125 +2226,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>16000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-22500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-85600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-25900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>47600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-48300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-79900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-344700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-48200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>49700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
         <v>44107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43925</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,64 +2397,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>316000</v>
+      </c>
+      <c r="E41" s="3">
         <v>323600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>277600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>245400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>147500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>226600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>271400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>403400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>236100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>241800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>229900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>231200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>166900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>319800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>320700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>297300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>236000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2424,252 +2513,267 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>229800</v>
+      </c>
+      <c r="E43" s="3">
         <v>189800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>130100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>153400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>289700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>247600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>204200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>199900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>328000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>261700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>204700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>234200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>367000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>310900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>240400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>245300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>375500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>295300</v>
+      </c>
+      <c r="E44" s="3">
         <v>359500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>375900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>439700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>452300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>570300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>460300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>384100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>377600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>521300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>497800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>530700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>573800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>683000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>618100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>571500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>542500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>149400</v>
+      </c>
+      <c r="E45" s="3">
         <v>134900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>98100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>128600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>117200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>126400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>124400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>133100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>149600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>129400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>125000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>161700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>118900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>125500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>126500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>142800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>132000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>132700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>990500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1007800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>881700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>967100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1059500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1091700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1015500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>988500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1258600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1148500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1069300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1156400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1291000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1286300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1304800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1280300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1347300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1389600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E47" s="3">
         <v>58000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>90400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>67000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>7000</v>
       </c>
       <c r="H47" s="3">
         <v>7000</v>
       </c>
       <c r="I47" s="3">
-        <v>7600</v>
+        <v>7000</v>
       </c>
       <c r="J47" s="3">
         <v>7600</v>
@@ -2678,7 +2782,7 @@
         <v>7600</v>
       </c>
       <c r="L47" s="3">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="M47" s="3">
         <v>1000</v>
@@ -2690,13 +2794,13 @@
         <v>1000</v>
       </c>
       <c r="P47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q47" s="3">
         <v>900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7400</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
@@ -2704,120 +2808,129 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>340800</v>
+      </c>
+      <c r="E48" s="3">
         <v>363000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>387200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>407800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>439700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>447100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>470600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>484700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>183200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>190600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>200100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>208500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>219700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>243400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>255800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>260400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>273900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>290800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E49" s="3">
         <v>19300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>20800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>22400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>26900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>28000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>46400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>48100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>68300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>71300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>74300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>83900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>86700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>89500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>92500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>499800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>502400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>515800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,64 +3044,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E52" s="3">
         <v>74300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>71300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>68200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>71700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>66800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>68100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>61100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>57600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>58100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>61600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>59900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>130100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>115500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>61100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>63400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>61500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,64 +3162,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1478500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1522300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1451300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1532600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1604700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1640600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1608200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1589900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1575200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1469500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1406200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1515700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1658400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1750400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1776000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2101700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2186900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2257600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,111 +3269,115 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>178200</v>
+      </c>
+      <c r="E57" s="3">
         <v>213100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>127900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>132700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>172200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>193000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>178500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>138300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>169600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>159400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>139500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>133700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>205000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>248800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>163500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>151200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>163600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>193600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E58" s="3">
         <v>21400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>25200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>21100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>26200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>21900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>66400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>65900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>126400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>128000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>127700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>127100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>40200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>32700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>26400</v>
       </c>
       <c r="S58" s="3">
         <v>26400</v>
@@ -3252,232 +3385,247 @@
       <c r="T58" s="3">
         <v>26400</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>338800</v>
+      </c>
+      <c r="E59" s="3">
         <v>315400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>310600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>309400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>360800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>314300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>282700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>292400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>309800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>283800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>240300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>263100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>302000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>264500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>217800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>209100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>224600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>204200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>558500</v>
+      </c>
+      <c r="E60" s="3">
         <v>549900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>463700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>463200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>559200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>529100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>527600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>496500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>605800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>571200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>507500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>523900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>509100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>553500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>414100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>386700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>414600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>185900</v>
+      </c>
+      <c r="E61" s="3">
         <v>217900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>243900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>298500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>178800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>242100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>162000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>161100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>269800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>269100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>268400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>335500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>443900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>444300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>613600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>589700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>610000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>697400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>294100</v>
+      </c>
+      <c r="E62" s="3">
         <v>331000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>347100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>354500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>362900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>359500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>379000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>383000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>111000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>99600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>113500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>129700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>124400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>99600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>93500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>142900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>146900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>151100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,64 +3798,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1039400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1099500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1055300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1117100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1101700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1131400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1069000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1044200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>989700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>942700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>891200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>994200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1082200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1109100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1132900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1129800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1180700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1284900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,64 +4116,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>203700</v>
+      </c>
+      <c r="E72" s="3">
         <v>207700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>191700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>214200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>299800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>306700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>332600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>339900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>381600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>332000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>327000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>334800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>409700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>489500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>494900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>839600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>887800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>838100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,64 +4352,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>439100</v>
+      </c>
+      <c r="E76" s="3">
         <v>422800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>396100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>415400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>503100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>509300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>539200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>545700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>585500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>526800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>515000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>521400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>576100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>641300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>643000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>971900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1006200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>972700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,125 +4470,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
         <v>44107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43925</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>16000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-22500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-85600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-25900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>47600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-48300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-79900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-344700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-48200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>49700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,64 +4618,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E83" s="3">
         <v>10300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>19400</v>
       </c>
       <c r="P83" s="3">
         <v>19400</v>
       </c>
       <c r="Q83" s="3">
+        <v>19400</v>
+      </c>
+      <c r="R83" s="3">
         <v>21200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,64 +4970,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E89" s="3">
         <v>84200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>88800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-77100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>124000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-112100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-33700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>175700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>81700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>119400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>24800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-16000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>51400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>150800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,64 +5054,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,64 +5229,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>35300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5370,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,172 +5547,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-32900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-53700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>112300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-66300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>36300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-172400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-71700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>12000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-45200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-162900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>28500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-22000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-92600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>12500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E102" s="3">
         <v>46400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>32500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>44500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>52700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-79400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-44600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-131800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>173100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>64300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-152900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>23500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>61400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>FOSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,267 +665,279 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44107</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44016</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43925</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>363000</v>
+      </c>
+      <c r="E8" s="3">
         <v>528100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>435500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>259000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>390700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>711600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>539500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>501400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>465300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>786900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>608800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>576600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>569200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>920800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>688700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>596800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>581800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>959200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>738000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>180500</v>
+      </c>
+      <c r="E9" s="3">
         <v>268500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>205700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>118400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>250400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>403700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>260900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>236300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>217300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>370000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>282300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>267600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>281500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>472700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>368800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>295500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>292300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>470100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>182500</v>
+      </c>
+      <c r="E10" s="3">
         <v>259600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>229800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>140600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>140300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>307900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>278600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>265100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>248000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>416900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>326500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>309000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>287700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>448100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>319900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>301300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>289500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>489100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>385100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -947,8 +959,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1006,8 +1019,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,67 +1081,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="3">
         <v>17800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>28600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>12800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>25100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>21000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>23500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>416900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>26300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>13300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1151,10 +1173,10 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
         <v>400</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1165,8 +1187,8 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1183,8 +1205,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,126 +1228,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>379800</v>
+      </c>
+      <c r="E17" s="3">
         <v>509800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>418000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>295800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>525100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>715600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>548600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>499700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>485200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>719600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>586200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>575600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>598100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>869600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>689200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1026600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>627100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>893000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>706800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E18" s="3">
         <v>18300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-36800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-134400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>67300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-28900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>51200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-429800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-45300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>66200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,303 +1376,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>25900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E21" s="3">
         <v>29900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>27800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-25200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-129400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>16100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>93100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>35800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>15500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-14200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>72900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>22800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-406600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-18700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>95200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>56300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E22" s="3">
         <v>8500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>7400</v>
       </c>
       <c r="J22" s="3">
         <v>7400</v>
       </c>
       <c r="K22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="L22" s="3">
         <v>8100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E23" s="3">
         <v>11400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-43800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-149100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>61800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-40900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>42400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-439400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-48000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>66300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
         <v>15200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-20800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-63700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>87000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-96300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,126 +1746,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-85400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-24900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>47900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-47500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-44600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-343100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-46800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>50800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-85600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-25900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>47600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-48300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-46300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-344700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-48200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>49700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,31 +1932,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1916,11 +1976,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-33600</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1934,8 +1994,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2056,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,126 +2118,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-25900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-85600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-25900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>47600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-48300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-79900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-344700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-48200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>49700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,131 +2304,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-85600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-25900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>47600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-48300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-79900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-344700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-48200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>49700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44107</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44016</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43925</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2459,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,67 +2483,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>246700</v>
+      </c>
+      <c r="E41" s="3">
         <v>316000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>323600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>277600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>245400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>147500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>226600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>271400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>403400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>236100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>241800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>229900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>231200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>166900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>319800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>320700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>297300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>236000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2516,267 +2605,282 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>175500</v>
+      </c>
+      <c r="E43" s="3">
         <v>229800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>189800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>130100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>153400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>289700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>247600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>204200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>199900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>328000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>261700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>204700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>234200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>367000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>310900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>240400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>245300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>375500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>322500</v>
+      </c>
+      <c r="E44" s="3">
         <v>295300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>359500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>375900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>439700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>452300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>570300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>460300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>384100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>377600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>521300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>497800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>530700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>573800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>683000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>618100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>571500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>542500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>202400</v>
+      </c>
+      <c r="E45" s="3">
         <v>149400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>134900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>98100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>128600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>117200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>126400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>124400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>133100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>149600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>129400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>125000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>161700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>118900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>125500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>126500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>142800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>132000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>132700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>947100</v>
+      </c>
+      <c r="E46" s="3">
         <v>990500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1007800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>881700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>967100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1059500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1091700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1015500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>988500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1258600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1148500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1069300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1156400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1291000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1286300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1304800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1280300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1347300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1389600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E47" s="3">
         <v>59100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>58000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>90400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>67000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>7000</v>
       </c>
       <c r="I47" s="3">
         <v>7000</v>
       </c>
       <c r="J47" s="3">
-        <v>7600</v>
+        <v>7000</v>
       </c>
       <c r="K47" s="3">
         <v>7600</v>
@@ -2785,7 +2889,7 @@
         <v>7600</v>
       </c>
       <c r="M47" s="3">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="N47" s="3">
         <v>1000</v>
@@ -2797,13 +2901,13 @@
         <v>1000</v>
       </c>
       <c r="Q47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R47" s="3">
         <v>900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7400</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
@@ -2811,126 +2915,135 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>316800</v>
+      </c>
+      <c r="E48" s="3">
         <v>340800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>363000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>387200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>407800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>439700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>447100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>470600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>484700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>183200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>190600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>200100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>208500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>219700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>243400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>255800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>260400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>273900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>290800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E49" s="3">
         <v>17800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>20800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>22400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>26900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>28000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>46400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>48100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>68300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>71300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>74300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>83900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>86700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>89500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>92500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>499800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>502400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>515800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3101,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,67 +3163,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E52" s="3">
         <v>70400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>74300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>71300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>68200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>71700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>66800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>68100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>61100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>57600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>58100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>61600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>65900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>59900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>130100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>115500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>61100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>63400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>61500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,67 +3287,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1349100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1478500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1522300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1451300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1532600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1604700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1640600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1608200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1589900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1575200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1469500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1406200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1515700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1658400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1750400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1776000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2101700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2186900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2257600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3375,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,117 +3399,121 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>201200</v>
+      </c>
+      <c r="E57" s="3">
         <v>178200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>213100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>127900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>132700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>172200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>193000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>178500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>138300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>169600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>159400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>139500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>133700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>205000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>248800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>163500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>151200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>163600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>193600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E58" s="3">
         <v>41600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>21400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>25200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>21100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>26200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>21900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>66400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>65900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>126400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>128000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>127700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>127100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>40200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>32700</v>
-      </c>
-      <c r="S58" s="3">
-        <v>26400</v>
       </c>
       <c r="T58" s="3">
         <v>26400</v>
@@ -3388,244 +3521,259 @@
       <c r="U58" s="3">
         <v>26400</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>268100</v>
+      </c>
+      <c r="E59" s="3">
         <v>338800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>315400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>310600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>309400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>360800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>314300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>282700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>292400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>309800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>283800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>240300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>263100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>302000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>264500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>217800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>209100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>224600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>204200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>507200</v>
+      </c>
+      <c r="E60" s="3">
         <v>558500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>549900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>463700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>463200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>559200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>529100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>527600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>496500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>605800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>571200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>507500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>523900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>509100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>553500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>414100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>386700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>414600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>157200</v>
+      </c>
+      <c r="E61" s="3">
         <v>185900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>217900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>243900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>298500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>178800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>242100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>162000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>161100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>269800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>269100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>268400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>335500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>443900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>444300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>613600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>589700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>610000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>697400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>275800</v>
+      </c>
+      <c r="E62" s="3">
         <v>294100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>331000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>347100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>354500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>362900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>359500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>379000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>383000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>111000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>99600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>113500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>129700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>124400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>99600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>93500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>142900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>146900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>151100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3831,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3893,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,67 +3955,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>941300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1039400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1099500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1055300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1117100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1101700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1131400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1069000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1044200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>989700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>942700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>891200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>994200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1082200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1109100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1132900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1129800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1180700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1284900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4043,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4103,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4165,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,8 +4227,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,67 +4289,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>179300</v>
+      </c>
+      <c r="E72" s="3">
         <v>203700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>207700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>191700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>214200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>299800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>306700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>332600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>339900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>381600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>332000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>327000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>334800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>409700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>489500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>494900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>839600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>887800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>838100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4413,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4475,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,67 +4537,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>407800</v>
+      </c>
+      <c r="E76" s="3">
         <v>439100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>422800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>396100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>415400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>503100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>509300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>539200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>545700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>585500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>526800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>515000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>521400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>576100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>641300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>643000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>971900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1006200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>972700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,131 +4661,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44107</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44016</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43925</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-85600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-25900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>47600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-48300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-79900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-344700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-48200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>49700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,67 +4816,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E83" s="3">
         <v>10000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>15100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>19400</v>
       </c>
       <c r="Q83" s="3">
         <v>19400</v>
       </c>
       <c r="R83" s="3">
+        <v>19400</v>
+      </c>
+      <c r="S83" s="3">
         <v>21200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4938,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5000,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5062,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5124,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,67 +5186,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="E89" s="3">
         <v>5400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>84200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>88800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-77100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>124000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-112100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-33700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>175700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>81700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>119400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>24800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-16000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>51400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>150800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,67 +5274,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5396,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,67 +5458,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>35300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5546,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5373,8 +5606,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5668,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5730,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,181 +5792,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-14900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-32900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-53700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>112300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-66300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>36300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-172400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-71700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>12000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-45200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-162900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>28500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-22000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-92600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E101" s="3">
         <v>4100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>12500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-10600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>10800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>46400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>32500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>44500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>52700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-79400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-44600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-131800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>173100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>64300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-152900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>23500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>61400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>FOSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,279 +665,291 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44107</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44016</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43925</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>410900</v>
+      </c>
+      <c r="E8" s="3">
         <v>363000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>528100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>435500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>259000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>390700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>711600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>539500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>501400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>465300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>786900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>608800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>576600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>569200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>920800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>688700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>596800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>581800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>959200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>738000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>189100</v>
+      </c>
+      <c r="E9" s="3">
         <v>180500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>268500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>205700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>118400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>250400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>403700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>260900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>236300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>217300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>370000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>282300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>267600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>281500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>472700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>368800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>295500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>292300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>470100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>221800</v>
+      </c>
+      <c r="E10" s="3">
         <v>182500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>259600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>229800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>140600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>140300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>307900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>278600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>265100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>248000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>416900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>326500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>309000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>287700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>448100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>319900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>301300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>289500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>489100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>385100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,8 +972,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1022,8 +1035,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1084,70 +1100,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="3">
         <v>12000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>17800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>28600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>25100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>21000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>23500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>416900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>26300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>13300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1176,10 +1198,10 @@
         <v>100</v>
       </c>
       <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
         <v>400</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1190,8 +1212,8 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1208,8 +1230,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1229,132 +1254,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>396600</v>
+      </c>
+      <c r="E17" s="3">
         <v>379800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>509800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>418000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>295800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>525100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>715600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>548600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>499700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>485200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>719600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>586200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>575600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>598100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>869600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>689200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1026600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>627100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>893000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>706800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-16800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>18300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-36800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-134400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>67300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>51200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-429800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-45300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>66200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1377,318 +1409,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>25900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-25200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-129400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>93100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>35800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>15500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>72900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>22800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-406600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-18700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>95200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>56300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E22" s="3">
         <v>7300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>7400</v>
       </c>
       <c r="K22" s="3">
         <v>7400</v>
       </c>
       <c r="L22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="M22" s="3">
         <v>8100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-22200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-43800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-149100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>61800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-40900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>42400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-439400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-48000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>66300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-20800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-63700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>87000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-96300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>15500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1749,132 +1797,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-85400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-24900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>47900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-47500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-44600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-343100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-46800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>50800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-24400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-85600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-25900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>47600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-48300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-46300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-344700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-48200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>49700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1935,8 +1992,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1961,8 +2021,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1979,11 +2039,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-33600</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1997,8 +2057,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2059,8 +2122,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2121,132 +2187,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-25900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-24400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-85600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-25900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>47600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-48300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-79900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-344700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-48200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>49700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2307,137 +2382,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-24400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-85600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-25900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>47600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-48300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-79900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-344700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-48200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>49700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44107</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44016</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43925</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2460,8 +2544,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2484,70 +2569,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>252300</v>
+      </c>
+      <c r="E41" s="3">
         <v>246700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>316000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>323600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>277600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>245400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>147500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>226600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>271400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>403400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>236100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>241800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>229900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>231200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>166900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>319800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>320700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>297300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>236000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2608,256 +2697,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>187600</v>
+      </c>
+      <c r="E43" s="3">
         <v>175500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>229800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>189800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>130100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>153400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>289700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>247600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>204200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>199900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>328000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>261700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>204700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>234200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>367000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>310900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>240400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>245300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>375500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E44" s="3">
         <v>322500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>295300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>359500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>375900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>439700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>452300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>570300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>460300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>384100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>377600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>521300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>497800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>530700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>573800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>683000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>618100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>571500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>542500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>157300</v>
+      </c>
+      <c r="E45" s="3">
         <v>202400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>149400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>134900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>98100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>128600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>117200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>126400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>124400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>133100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>149600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>129400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>125000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>161700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>118900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>125500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>126500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>142800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>132000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>132700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>949200</v>
+      </c>
+      <c r="E46" s="3">
         <v>947100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>990500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1007800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>881700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>967100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1059500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1091700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1015500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>988500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1258600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1148500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1069300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1156400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1291000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1286300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1304800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1280300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1347300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1389600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2865,25 +2969,25 @@
         <v>6800</v>
       </c>
       <c r="E47" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F47" s="3">
         <v>59100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>58000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>90400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>67000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>7000</v>
       </c>
       <c r="J47" s="3">
         <v>7000</v>
       </c>
       <c r="K47" s="3">
-        <v>7600</v>
+        <v>7000</v>
       </c>
       <c r="L47" s="3">
         <v>7600</v>
@@ -2892,7 +2996,7 @@
         <v>7600</v>
       </c>
       <c r="N47" s="3">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="O47" s="3">
         <v>1000</v>
@@ -2904,13 +3008,13 @@
         <v>1000</v>
       </c>
       <c r="R47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S47" s="3">
         <v>900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7400</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
@@ -2918,132 +3022,141 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>297100</v>
+      </c>
+      <c r="E48" s="3">
         <v>316800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>340800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>363000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>387200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>407800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>439700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>447100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>470600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>484700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>183200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>190600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>200100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>208500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>219700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>243400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>255800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>260400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>273900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>290800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E49" s="3">
         <v>16500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>20800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>22400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>26900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>28000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>46400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>48100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>68300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>71300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>74300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>83900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>86700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>89500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>92500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>499800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>502400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>515800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3104,8 +3217,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3166,70 +3282,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E52" s="3">
         <v>61900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>70400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>74300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>71300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>68200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>71700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>66800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>68100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>61100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>57600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>58100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>61600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>65900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>59900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>130100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>115500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>61100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>63400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>61500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3290,70 +3412,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1337400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1349100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1478500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1522300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1451300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1532600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1604700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1640600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1608200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1589900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1575200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1469500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1406200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1515700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1658400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1750400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1776000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2101700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2186900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2257600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3376,8 +3504,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3400,123 +3529,127 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>213500</v>
+      </c>
+      <c r="E57" s="3">
         <v>201200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>178200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>213100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>127900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>132700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>172200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>193000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>178500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>138300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>169600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>159400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>139500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>133700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>205000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>248800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>163500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>151200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>163600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>193600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E58" s="3">
         <v>37900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>41600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>21400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>25200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>21100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>26200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>21900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>66400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>65900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>126400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>128000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>127700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>127100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>40200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>32700</v>
-      </c>
-      <c r="T58" s="3">
-        <v>26400</v>
       </c>
       <c r="U58" s="3">
         <v>26400</v>
@@ -3524,256 +3657,271 @@
       <c r="V58" s="3">
         <v>26400</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>269900</v>
+      </c>
+      <c r="E59" s="3">
         <v>268100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>338800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>315400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>310600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>309400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>360800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>314300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>282700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>292400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>309800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>283800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>240300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>263100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>302000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>264500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>217800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>209100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>224600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>204200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>521800</v>
+      </c>
+      <c r="E60" s="3">
         <v>507200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>558500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>549900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>463700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>463200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>559200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>529100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>527600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>496500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>605800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>571200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>507500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>523900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>509100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>553500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>414100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>386700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>414600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>139700</v>
+      </c>
+      <c r="E61" s="3">
         <v>157200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>185900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>217900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>243900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>298500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>178800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>242100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>162000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>161100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>269800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>269100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>268400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>335500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>443900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>444300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>613600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>589700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>610000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>697400</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>266600</v>
+      </c>
+      <c r="E62" s="3">
         <v>275800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>294100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>331000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>347100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>354500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>362900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>359500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>379000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>383000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>111000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>99600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>113500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>129700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>124400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>99600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>93500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>142900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>146900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>151100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3834,8 +3982,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3896,8 +4047,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3958,70 +4112,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>929600</v>
+      </c>
+      <c r="E66" s="3">
         <v>941300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1039400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1099500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1055300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1117100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1101700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1131400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1069000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1044200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>989700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>942700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>891200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>994200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1082200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1109100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1132900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1129800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1180700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1284900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4044,8 +4204,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4106,8 +4267,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4168,8 +4332,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4230,8 +4397,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4292,70 +4462,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>178100</v>
+      </c>
+      <c r="E72" s="3">
         <v>179300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>203700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>207700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>191700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>214200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>299800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>306700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>332600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>339900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>381600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>332000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>327000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>334800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>409700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>489500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>494900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>839600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>887800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>838100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4416,8 +4592,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4478,8 +4657,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4540,70 +4722,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>407900</v>
+      </c>
+      <c r="E76" s="3">
         <v>407800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>439100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>422800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>396100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>415400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>503100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>509300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>539200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>545700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>585500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>526800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>515000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>521400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>576100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>641300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>643000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>971900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1006200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>972700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4664,137 +4852,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44107</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44016</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43925</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-24400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-85600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-25900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>47600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-48300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-79900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-344700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-48200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>49700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4817,70 +5014,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E83" s="3">
         <v>8900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>19400</v>
       </c>
       <c r="R83" s="3">
         <v>19400</v>
       </c>
       <c r="S83" s="3">
+        <v>19400</v>
+      </c>
+      <c r="T83" s="3">
         <v>21200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>20900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4941,8 +5142,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5003,8 +5207,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5065,8 +5272,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5127,8 +5337,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5189,70 +5402,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>84200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>88800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-77100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>124000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-112100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-33700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>175700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>81700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>119400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>24800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-16000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>51400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>150800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5275,70 +5494,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5399,8 +5622,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5461,70 +5687,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>15100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>35300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5547,8 +5779,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5609,8 +5842,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5671,8 +5907,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5733,8 +5972,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5795,190 +6037,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-34200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-32900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-53700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>112300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-66300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>36300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-172400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-71700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>12000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-45200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-162900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>28500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-22000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-92600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>12500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-2300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-10600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>10800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-63500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>46400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>32500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>44500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>52700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-79400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-44600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-131800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>173100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>64300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-152900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>23500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>61400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>FOSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,291 +665,303 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44198</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44107</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44016</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43925</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>491800</v>
+      </c>
+      <c r="E8" s="3">
         <v>410900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>363000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>528100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>435500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>259000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>390700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>711600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>539500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>501400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>465300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>786900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>608800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>576600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>569200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>920800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>688700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>596800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>581800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>959200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>738000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>232300</v>
+      </c>
+      <c r="E9" s="3">
         <v>189100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>180500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>268500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>205700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>118400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>250400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>403700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>260900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>236300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>217300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>370000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>282300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>267600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>281500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>472700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>368800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>295500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>292300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>470100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>259500</v>
+      </c>
+      <c r="E10" s="3">
         <v>221800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>182500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>259600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>229800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>140600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>140300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>307900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>278600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>265100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>248000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>416900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>326500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>309000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>287700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>448100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>319900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>301300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>289500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>489100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>385100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -973,8 +985,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1038,8 +1051,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1103,73 +1119,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="3">
         <v>7000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>17800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>28600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>25100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>21000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>23500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>416900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>26300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>13300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1201,10 +1223,10 @@
         <v>100</v>
       </c>
       <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
         <v>400</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1215,8 +1237,8 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1233,8 +1255,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1255,138 +1280,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>444000</v>
+      </c>
+      <c r="E17" s="3">
         <v>396600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>379800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>509800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>418000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>295800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>525100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>715600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>548600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>499700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>485200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>719600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>586200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>575600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>598100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>869600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>689200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1026600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>627100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>893000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>706800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E18" s="3">
         <v>14300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-16800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-36800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-134400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>67300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>22600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-28900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>51200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-429800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-45300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>66200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1410,8 +1442,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1419,324 +1452,339 @@
         <v>-500</v>
       </c>
       <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>25900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E21" s="3">
         <v>21300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-25200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-129400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>16100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>93100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>35800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>15500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-14200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>72900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>22800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-406600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-18700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>95200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>56300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E22" s="3">
         <v>6500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>7400</v>
       </c>
       <c r="L22" s="3">
         <v>7400</v>
       </c>
       <c r="M22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="N22" s="3">
         <v>8100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>11600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E23" s="3">
         <v>7300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-22200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-43800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-149100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>61800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-40900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>42400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-439400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-48000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>66300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E24" s="3">
         <v>8100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-6800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-20800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-63700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>87000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-96300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>15500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1800,138 +1848,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-24300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-85400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>47900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-47500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-44600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-343100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-46800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>50800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-24400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-22500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-85600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-25900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>47600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-48300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-46300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-344700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-48200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>49700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1995,8 +2052,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2024,8 +2084,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2042,11 +2102,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-33600</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2060,8 +2120,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2125,8 +2188,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2190,8 +2256,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2199,129 +2268,135 @@
         <v>500</v>
       </c>
       <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-25900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-24400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-22500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-85600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-25900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>47600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-48300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-79900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-344700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-48200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>49700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2385,143 +2460,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-24400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-22500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-85600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-25900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>47600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-48300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-79900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-344700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-48200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>49700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44198</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44107</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44016</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43925</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2545,8 +2629,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2570,73 +2655,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>181800</v>
+      </c>
+      <c r="E41" s="3">
         <v>252300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>246700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>316000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>323600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>277600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>245400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>147500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>226600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>271400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>403400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>236100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>241800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>229900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>231200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>166900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>319800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>320700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>297300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>236000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2700,297 +2789,312 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>251500</v>
+      </c>
+      <c r="E43" s="3">
         <v>187600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>175500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>229800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>189800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>130100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>153400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>289700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>247600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>204200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>199900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>328000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>261700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>204700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>234200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>367000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>310900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>240400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>245300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>375500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>398300</v>
+      </c>
+      <c r="E44" s="3">
         <v>352000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>322500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>295300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>359500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>375900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>439700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>452300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>570300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>460300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>384100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>377600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>521300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>497800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>530700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>573800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>683000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>618100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>571500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>542500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>155800</v>
+      </c>
+      <c r="E45" s="3">
         <v>157300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>202400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>149400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>134900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>98100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>128600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>117200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>126400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>124400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>133100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>149600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>129400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>125000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>161700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>118900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>125500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>126500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>142800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>132000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>132700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>987500</v>
+      </c>
+      <c r="E46" s="3">
         <v>949200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>947100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>990500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1007800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>881700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>967100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1059500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1091700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1015500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>988500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1258600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1148500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1069300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1156400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1291000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1286300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1304800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1280300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1347300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1389600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6800</v>
+        <v>5400</v>
       </c>
       <c r="E47" s="3">
         <v>6800</v>
       </c>
       <c r="F47" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G47" s="3">
         <v>59100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>58000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>90400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>67000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>7000</v>
       </c>
       <c r="K47" s="3">
         <v>7000</v>
       </c>
       <c r="L47" s="3">
-        <v>7600</v>
+        <v>7000</v>
       </c>
       <c r="M47" s="3">
         <v>7600</v>
@@ -2999,7 +3103,7 @@
         <v>7600</v>
       </c>
       <c r="O47" s="3">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="P47" s="3">
         <v>1000</v>
@@ -3011,13 +3115,13 @@
         <v>1000</v>
       </c>
       <c r="S47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T47" s="3">
         <v>900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7400</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
@@ -3025,138 +3129,147 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>280700</v>
+      </c>
+      <c r="E48" s="3">
         <v>297100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>316800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>340800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>363000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>387200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>407800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>439700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>447100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>470600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>484700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>183200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>190600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>200100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>208500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>219700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>243400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>255800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>260400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>273900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>290800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E49" s="3">
         <v>15800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>20800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>22400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>26900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>46400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>48100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>68300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>71300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>74300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>83900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>86700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>89500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>92500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>499800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>502400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>515800</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3220,8 +3333,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3285,73 +3401,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E52" s="3">
         <v>68600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>61900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>70400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>74300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>71300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>68200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>71700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>66800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>68100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>61100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>57600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>58100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>61600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>65900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>59900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>130100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>115500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>61100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>63400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>61500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3415,73 +3537,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1356000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1337400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1349100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1478500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1522300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1451300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1532600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1604700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1640600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1608200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1589900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1575200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1469500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1406200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1515700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1658400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1750400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1776000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2101700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2186900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2257600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3505,8 +3633,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3530,129 +3659,133 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>246300</v>
+      </c>
+      <c r="E57" s="3">
         <v>213500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>201200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>178200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>213100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>127900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>132700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>172200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>193000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>178500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>138300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>169600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>159400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>139500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>133700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>205000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>248800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>163500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>151200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>163600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>193600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E58" s="3">
         <v>38400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>37900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>41600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>21400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>25200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>21100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>26200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>66400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>65900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>126400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>128000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>127700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>127100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>40200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>32700</v>
-      </c>
-      <c r="U58" s="3">
-        <v>26400</v>
       </c>
       <c r="V58" s="3">
         <v>26400</v>
@@ -3660,268 +3793,283 @@
       <c r="W58" s="3">
         <v>26400</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>281900</v>
+      </c>
+      <c r="E59" s="3">
         <v>269900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>268100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>338800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>315400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>310600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>309400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>360800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>314300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>282700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>292400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>309800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>283800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>240300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>263100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>302000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>264500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>217800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>209100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>224600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>204200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>569400</v>
+      </c>
+      <c r="E60" s="3">
         <v>521800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>507200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>558500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>549900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>463700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>463200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>559200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>529100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>527600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>496500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>605800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>571200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>507500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>523900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>509100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>553500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>414100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>386700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>414600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E61" s="3">
         <v>139700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>157200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>185900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>217900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>243900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>298500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>178800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>242100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>162000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>161100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>269800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>269100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>268400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>335500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>443900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>444300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>613600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>589700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>610000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>697400</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>246300</v>
+      </c>
+      <c r="E62" s="3">
         <v>266600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>275800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>294100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>331000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>347100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>354500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>362900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>359500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>379000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>383000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>111000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>99600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>113500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>129700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>124400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>99600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>93500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>142900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>146900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>151100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3985,8 +4133,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4050,8 +4201,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4115,73 +4269,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>915000</v>
+      </c>
+      <c r="E66" s="3">
         <v>929600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>941300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1039400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1099500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1055300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1117100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1101700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1131400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1069000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1044200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>989700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>942700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>891200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>994200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1082200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1109100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1132900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1129800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1180700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1284900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4205,8 +4365,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4270,8 +4431,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4335,8 +4499,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4400,8 +4567,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4465,73 +4635,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>209500</v>
+      </c>
+      <c r="E72" s="3">
         <v>178100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>179300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>203700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>207700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>191700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>214200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>299800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>306700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>332600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>339900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>381600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>332000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>327000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>334800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>409700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>489500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>494900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>839600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>887800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>838100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4595,8 +4771,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4660,8 +4839,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4725,73 +4907,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>440900</v>
+      </c>
+      <c r="E76" s="3">
         <v>407900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>407800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>439100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>422800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>396100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>415400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>503100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>509300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>539200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>545700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>585500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>526800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>515000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>521400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>576100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>641300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>643000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>971900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1006200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>972700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4855,143 +5043,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44198</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44107</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44016</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43925</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-24400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-22500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-85600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-25900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>47600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-48300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-79900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-344700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-48200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>49700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5015,73 +5212,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E83" s="3">
         <v>7500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>16000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>19400</v>
       </c>
       <c r="S83" s="3">
         <v>19400</v>
       </c>
       <c r="T83" s="3">
+        <v>19400</v>
+      </c>
+      <c r="U83" s="3">
         <v>21200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>20900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>21400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5145,8 +5346,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5210,8 +5414,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5275,8 +5482,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5340,8 +5550,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5405,73 +5618,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E89" s="3">
         <v>28100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>84200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>88800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-77100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>124000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-112100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-33700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>175700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>81700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>119400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>24800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-16000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>51400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>150800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5495,73 +5714,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5625,8 +5848,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5690,73 +5916,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>15100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>35300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5780,8 +6012,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5845,8 +6078,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5910,8 +6146,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5975,8 +6214,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6040,199 +6282,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-22100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-34200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-32900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-53700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>112300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-66300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>36300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-172400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-71700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>12000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-45200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-162900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>28500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-22000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-92600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>12500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-10600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>10800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-71300</v>
+      </c>
+      <c r="E102" s="3">
         <v>6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-63500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>46400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>32500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>44500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>52700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-79400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-44600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-131800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>173100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>64300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-152900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>23500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>61400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>FOSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,303 +665,315 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44107</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44016</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43925</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>604200</v>
+      </c>
+      <c r="E8" s="3">
         <v>491800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>410900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>363000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>528100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>435500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>259000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>390700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>711600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>539500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>501400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>465300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>786900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>608800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>576600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>569200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>920800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>688700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>596800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>581800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>959200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>738000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>301800</v>
+      </c>
+      <c r="E9" s="3">
         <v>232300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>189100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>180500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>268500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>205700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>118400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>250400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>403700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>260900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>236300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>217300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>370000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>282300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>267600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>281500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>472700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>368800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>295500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>292300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>470100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>302400</v>
+      </c>
+      <c r="E10" s="3">
         <v>259500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>221800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>182500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>259600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>229800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>140600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>140300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>307900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>278600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>265100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>248000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>416900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>326500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>309000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>287700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>448100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>319900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>301300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>289500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>489100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>385100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,8 +998,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1054,8 +1067,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1122,81 +1138,87 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E14" s="3">
         <v>6000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>17800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>28600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>25100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>21000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>23500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>416900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>26300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>13300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>100</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1226,10 +1248,10 @@
         <v>100</v>
       </c>
       <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
         <v>400</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1240,8 +1262,8 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1258,8 +1280,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1281,144 +1306,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>557000</v>
+      </c>
+      <c r="E17" s="3">
         <v>444000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>396600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>379800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>509800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>418000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>295800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>525100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>715600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>548600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>499700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>485200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>719600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>586200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>575600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>598100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>869600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>689200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1026600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>627100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>893000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>706800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E18" s="3">
         <v>47800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>18300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>17500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-36800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-134400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-19900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>67300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>22600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-28900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>51200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-429800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-45300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>66200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1443,348 +1475,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-500</v>
+        <v>-15400</v>
       </c>
       <c r="E20" s="3">
         <v>-500</v>
       </c>
       <c r="F20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>25900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E21" s="3">
         <v>54300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>21300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>27800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-25200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-129400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>93100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>35800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>15500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-14200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>72900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>22800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-406600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-18700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>95200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>56300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E22" s="3">
         <v>6400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>7400</v>
       </c>
       <c r="M22" s="3">
         <v>7400</v>
       </c>
       <c r="N22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="O22" s="3">
         <v>8100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>12100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>11600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E23" s="3">
         <v>40900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-22200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-43800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-149100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>61800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-40900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>42400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-8700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-439400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-48000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>66300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E24" s="3">
         <v>9000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-6800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-20800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-63700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>87000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-96300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>15500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1851,144 +1899,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E26" s="3">
         <v>31900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-24300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-85400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-24900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>47900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-47500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-44600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-343100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-46800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>50800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E27" s="3">
         <v>31400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-24400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-85600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-25900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>47600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-48300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-46300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-344700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-48200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>49700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2055,8 +2112,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2087,8 +2147,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2105,11 +2165,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-33600</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2123,8 +2183,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2191,8 +2254,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2259,144 +2325,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>500</v>
+        <v>15400</v>
       </c>
       <c r="E32" s="3">
         <v>500</v>
       </c>
       <c r="F32" s="3">
+        <v>500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-25900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E33" s="3">
         <v>31400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-24400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-22500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-85600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-25900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>47600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-48300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-79900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-344700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-48200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>49700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2463,149 +2538,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E35" s="3">
         <v>31400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-24400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-22500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-85600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-25900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>47600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-48300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-79900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-344700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-48200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>49700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44107</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44016</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43925</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2630,8 +2714,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2656,76 +2741,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>250800</v>
+      </c>
+      <c r="E41" s="3">
         <v>181800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>252300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>246700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>316000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>323600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>277600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>245400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>147500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>226600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>271400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>403400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>236100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>241800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>229900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>231200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>166900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>319800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>320700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>297300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>236000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2792,312 +2881,327 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>255100</v>
+      </c>
+      <c r="E43" s="3">
         <v>251500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>187600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>175500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>229800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>189800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>130100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>153400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>289700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>247600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>204200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>199900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>328000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>261700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>204700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>234200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>367000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>310900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>240400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>245300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>375500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>346900</v>
+      </c>
+      <c r="E44" s="3">
         <v>398300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>352000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>322500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>295300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>359500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>375900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>439700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>452300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>570300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>460300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>384100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>377600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>521300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>497800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>530700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>573800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>683000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>618100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>571500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>542500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>169900</v>
+      </c>
+      <c r="E45" s="3">
         <v>155800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>157300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>202400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>149400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>134900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>98100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>128600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>117200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>126400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>124400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>133100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>149600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>129400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>125000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>161700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>118900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>125500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>126500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>142800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>132000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>132700</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1022800</v>
+      </c>
+      <c r="E46" s="3">
         <v>987500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>949200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>947100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>990500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1007800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>881700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>967100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1059500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1091700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1015500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>988500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1258600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1148500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1069300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1156400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1291000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1286300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1304800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1280300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1347300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1389600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>400</v>
+      </c>
+      <c r="E47" s="3">
         <v>5400</v>
-      </c>
-      <c r="E47" s="3">
-        <v>6800</v>
       </c>
       <c r="F47" s="3">
         <v>6800</v>
       </c>
       <c r="G47" s="3">
+        <v>6800</v>
+      </c>
+      <c r="H47" s="3">
         <v>59100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>58000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>90400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>67000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>7000</v>
       </c>
       <c r="L47" s="3">
         <v>7000</v>
       </c>
       <c r="M47" s="3">
-        <v>7600</v>
+        <v>7000</v>
       </c>
       <c r="N47" s="3">
         <v>7600</v>
@@ -3106,7 +3210,7 @@
         <v>7600</v>
       </c>
       <c r="P47" s="3">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="Q47" s="3">
         <v>1000</v>
@@ -3118,13 +3222,13 @@
         <v>1000</v>
       </c>
       <c r="T47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U47" s="3">
         <v>900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7400</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
@@ -3132,144 +3236,153 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>267400</v>
+      </c>
+      <c r="E48" s="3">
         <v>280700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>297100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>316800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>340800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>363000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>387200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>407800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>439700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>447100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>470600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>484700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>183200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>190600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>200100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>208500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>219700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>243400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>255800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>260400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>273900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>290800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E49" s="3">
         <v>15000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>22400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>26900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>28000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>46400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>48100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>68300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>71300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>74300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>83900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>86700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>89500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>92500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>499800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>502400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>515800</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3336,8 +3449,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3404,76 +3520,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E52" s="3">
         <v>67400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>68600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>61900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>70400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>74300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>71300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>68200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>71700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>66800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>68100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>61100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>57600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>58100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>61600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>65900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>59900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>130100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>115500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>61100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>63400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>61500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3540,76 +3662,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1368700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1356000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1337400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1349100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1478500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1522300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1451300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1532600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1604700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1640600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1608200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1589900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1575200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1469500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1406200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1515700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1658400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1750400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1776000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2101700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2186900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2257600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3634,8 +3762,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3660,135 +3789,139 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>229900</v>
+      </c>
+      <c r="E57" s="3">
         <v>246300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>213500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>201200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>178200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>213100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>127900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>132700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>172200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>193000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>178500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>138300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>169600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>159400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>139500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>133700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>205000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>248800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>163500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>151200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>163600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>193600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>41200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>38400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>37900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>41600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>21400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>25200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>21100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>66400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>65900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>126400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>128000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>127700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>127100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>40200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>32700</v>
-      </c>
-      <c r="V58" s="3">
-        <v>26400</v>
       </c>
       <c r="W58" s="3">
         <v>26400</v>
@@ -3796,280 +3929,295 @@
       <c r="X58" s="3">
         <v>26400</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>305200</v>
+      </c>
+      <c r="E59" s="3">
         <v>281900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>269900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>268100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>338800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>315400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>310600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>309400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>360800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>314300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>282700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>292400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>309800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>283800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>240300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>263100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>302000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>264500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>217800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>209100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>224600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>204200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>535600</v>
+      </c>
+      <c r="E60" s="3">
         <v>569400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>521800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>507200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>558500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>549900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>463700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>463200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>559200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>529100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>527600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>496500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>605800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>571200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>507500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>523900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>509100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>553500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>414100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>386700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>414600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>141400</v>
+      </c>
+      <c r="E61" s="3">
         <v>97400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>139700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>157200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>185900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>217900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>243900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>298500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>178800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>242100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>162000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>161100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>269800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>269100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>268400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>335500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>443900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>444300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>613600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>589700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>610000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>697400</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>226400</v>
+      </c>
+      <c r="E62" s="3">
         <v>246300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>266600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>275800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>294100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>331000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>347100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>354500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>362900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>359500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>379000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>383000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>111000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>99600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>113500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>129700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>124400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>99600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>93500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>142900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>146900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>151100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4136,8 +4284,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4204,8 +4355,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4272,76 +4426,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>905500</v>
+      </c>
+      <c r="E66" s="3">
         <v>915000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>929600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>941300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1039400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1099500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1055300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1117100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1101700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1131400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1069000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1044200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>989700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>942700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>891200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>994200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1082200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1109100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1132900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1129800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1180700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1284900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4366,8 +4526,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4434,8 +4595,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4502,8 +4666,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4570,8 +4737,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4638,76 +4808,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>229100</v>
+      </c>
+      <c r="E72" s="3">
         <v>209500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>178100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>179300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>203700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>207700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>191700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>214200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>299800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>306700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>332600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>339900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>381600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>332000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>327000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>334800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>409700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>489500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>494900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>839600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>887800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>838100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4774,8 +4950,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4842,8 +5021,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4910,76 +5092,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>463200</v>
+      </c>
+      <c r="E76" s="3">
         <v>440900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>407900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>407800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>439100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>422800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>396100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>415400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>503100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>509300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>539200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>545700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>585500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>526800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>515000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>521400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>576100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>641300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>643000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>971900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1006200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>972700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5046,149 +5234,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44107</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44016</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43925</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E81" s="3">
         <v>31400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-24400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-22500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-85600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-25900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>47600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-48300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-79900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-344700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-48200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>49700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5213,76 +5410,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E83" s="3">
         <v>7000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>16000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>19400</v>
       </c>
       <c r="T83" s="3">
         <v>19400</v>
       </c>
       <c r="U83" s="3">
+        <v>19400</v>
+      </c>
+      <c r="V83" s="3">
         <v>21200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>20900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5349,8 +5550,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5417,8 +5621,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5485,8 +5692,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5553,8 +5763,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5621,76 +5834,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>28100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-37800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>84200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>88800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-77100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>124000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-112100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-33700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>175700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>81700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>119400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>24800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-16000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>51400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>150800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5715,76 +5934,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-12200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5851,8 +6074,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5919,76 +6145,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>15100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>35300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6013,8 +6245,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6081,8 +6314,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6149,8 +6385,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6217,8 +6456,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6285,208 +6527,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-41200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-22100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-34200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-32900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-53700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>112300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-66300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>36300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-172400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-71700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>12000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-45200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-162900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>28500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-22000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-92600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>12500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-2300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-10600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>10800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-71300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-63500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>46400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>32500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>44500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>52700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-79400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-44600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-131800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>173100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>64300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-152900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>23500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>61400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>FOSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,315 +665,339 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44107</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44016</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43925</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>371200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>375900</v>
+      </c>
+      <c r="F8" s="3">
         <v>604200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>491800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>410900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>363000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>528100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>435500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>259000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>390700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>711600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>539500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>501400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>465300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>786900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>608800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>576600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>569200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>920800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>688700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>596800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>581800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>959200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>738000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>179800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>191500</v>
+      </c>
+      <c r="F9" s="3">
         <v>301800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>232300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>189100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>180500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>268500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>205700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>118400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>250400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>403700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>260900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>236300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>217300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>370000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>282300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>267600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>281500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>472700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>368800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>295500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>292300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>470100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>191400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>184400</v>
+      </c>
+      <c r="F10" s="3">
         <v>302400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>259500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>221800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>182500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>259600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>229800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>140600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>140300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>307900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>278600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>265100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>248000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>416900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>326500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>309000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>287700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>448100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>319900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>301300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>289500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>489100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>385100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -999,8 +1023,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1070,8 +1096,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1141,90 +1173,102 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F14" s="3">
         <v>6100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>6000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>7000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>12000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>17800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>9700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>14100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>28600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>12800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>25100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>9000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>11000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>4800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>6200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>21000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>23500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>6400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>5800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>416900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>26300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>13300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>100</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1251,13 +1295,13 @@
         <v>100</v>
       </c>
       <c r="O15" s="3">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3">
         <v>400</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1265,11 +1309,11 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1283,8 +1327,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1307,150 +1357,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>382100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>390100</v>
+      </c>
+      <c r="F17" s="3">
         <v>557000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>444000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>396600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>379800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>509800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>418000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>295800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>525100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>715600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>548600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>499700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>485200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>719600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>586200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>575600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>598100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>869600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>689200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1026600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>627100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>893000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>706800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="F18" s="3">
         <v>47200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>47800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>14300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-16800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>18300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>17500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-36800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-134400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-9100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-19900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>67300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>22600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-28900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>51200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-429800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-45300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>66200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1476,363 +1540,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-15400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-7300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>25900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>5300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>2200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>3900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>5600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>7600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F21" s="3">
         <v>38100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>54300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>21300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-6000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>29900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>27800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-25200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-129400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>14000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>3000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>16100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>20400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>93100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>35800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>15500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-14200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>72900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>22800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-406600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-18700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>95200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>56300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F22" s="3">
         <v>4800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>6400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>6500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>7300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>8500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>8000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>7500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>7000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>7400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>7400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>8100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>10800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>9900</v>
-      </c>
-      <c r="R22" s="3">
-        <v>11100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>10700</v>
       </c>
       <c r="T22" s="3">
         <v>11100</v>
       </c>
       <c r="U22" s="3">
+        <v>10700</v>
+      </c>
+      <c r="V22" s="3">
+        <v>11100</v>
+      </c>
+      <c r="W22" s="3">
         <v>12100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>11600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>8400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>7500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F23" s="3">
         <v>27100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>40900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>7300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-22200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>11400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>9500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-43800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-149100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-18000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>61800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>9900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-10600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-40900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>42400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-8700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-439400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-48000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>66300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F24" s="3">
         <v>7300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>9000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>8100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>15200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-6800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-20800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-63700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>6900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>9600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>13900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>3900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-3400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>6600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>87000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-3200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-96300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-1200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>15500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1902,150 +1998,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="F26" s="3">
         <v>19800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>31900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-24300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>16200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-23000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-85400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-24900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-11800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>47900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>5900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-7200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-47500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-44600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-5500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-343100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-46800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>50800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F27" s="3">
         <v>19600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>31400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-24400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>16000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-22500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-85600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-25900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-7300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-12200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>47600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>5000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-7800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-48300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-46300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-5400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-344700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-48200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>49700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2115,8 +2229,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2150,11 +2270,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2168,14 +2288,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>-33600</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>-33600</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2186,8 +2306,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2257,8 +2383,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2328,150 +2460,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>15400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>7300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-25900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-2200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-3900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-5600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F33" s="3">
         <v>19600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>31400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-24400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>16000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-22500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-85600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-25900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-7300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-12200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>47600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>5000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-7800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-48300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-79900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-5400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-344700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-48200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>49700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2541,155 +2691,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F35" s="3">
         <v>19600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>31400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-24400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>16000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-22500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-85600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-25900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-7300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-12200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>47600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>5000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-7800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-48300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-79900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-5400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-344700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-48200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>49700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44107</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44016</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43925</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2715,8 +2883,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2742,79 +2912,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>167100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>162600</v>
+      </c>
+      <c r="F41" s="3">
         <v>250800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>181800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>252300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>246700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>316000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>323600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>277600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>245400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>200200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>147500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>226600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>271400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>403400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>236100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>241800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>229900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>231200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>166900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>319800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>320700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>297300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>236000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2884,339 +3062,369 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>176500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>201100</v>
+      </c>
+      <c r="F43" s="3">
         <v>255100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>251500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>187600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>175500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>229800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>189800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>130100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>153400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>289700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>247600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>204200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>199900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>328000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>261700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>204700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>234200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>367000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>310900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>240400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>245300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>375500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>437900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>385800</v>
+      </c>
+      <c r="F44" s="3">
         <v>346900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>398300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>352000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>322500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>295300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>359500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>375900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>439700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>452300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>570300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>460300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>384100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>377600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>521300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>497800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>530700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>573800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>683000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>618100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>571500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>542500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>183300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>187700</v>
+      </c>
+      <c r="F45" s="3">
         <v>169900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>155800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>157300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>202400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>149400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>134900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>98100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>128600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>117200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>126400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>124400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>133100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>149600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>129400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>125000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>161700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>118900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>125500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>126500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>142800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>132000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>132700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>964800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>937200</v>
+      </c>
+      <c r="F46" s="3">
         <v>1022800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>987500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>949200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>947100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>990500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1007800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>881700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>967100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1059500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1091700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1015500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>988500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1258600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1148500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1069300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1156400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1291000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1286300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1304800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1280300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1347300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1389600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>300</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>400</v>
+      </c>
+      <c r="G47" s="3">
         <v>5400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>6800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>6800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>59100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>58000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>90400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>67000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>7000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>7000</v>
-      </c>
-      <c r="N47" s="3">
-        <v>7600</v>
-      </c>
-      <c r="O47" s="3">
-        <v>7600</v>
       </c>
       <c r="P47" s="3">
         <v>7600</v>
       </c>
       <c r="Q47" s="3">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="R47" s="3">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="S47" s="3">
         <v>1000</v>
@@ -3225,164 +3433,182 @@
         <v>1000</v>
       </c>
       <c r="U47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W47" s="3">
         <v>900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>7400</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>249200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>251800</v>
+      </c>
+      <c r="F48" s="3">
         <v>267400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>280700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>297100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>316800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>340800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>363000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>387200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>407800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>439700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>447100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>470600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>484700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>183200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>190600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>200100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>208500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>219700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>243400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>255800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>260400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>273900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>290800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F49" s="3">
         <v>14300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>15000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>15800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>16500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>17800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>19300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>20800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>22400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>26900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>28000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>46400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>48100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>68300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>71300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>74300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>83900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>86700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>89500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>92500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>499800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>502400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>515800</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3452,8 +3678,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3523,79 +3755,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>62300</v>
+      </c>
+      <c r="F52" s="3">
         <v>63900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>67400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>68600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>61900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>70400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>74300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>71300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>68200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>71700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>66800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>68100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>61100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>57600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>58100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>61600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>65900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>59900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>130100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>115500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>61100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>63400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>61500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3665,79 +3909,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1283400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1265300</v>
+      </c>
+      <c r="F54" s="3">
         <v>1368700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1356000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1337400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1349100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1478500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1522300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1451300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1532600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1604700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1640600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1608200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1589900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1575200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1469500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1406200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1515700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1658400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1750400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1776000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2101700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>2186900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2257600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3763,8 +4019,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3790,79 +4048,87 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>208700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>198500</v>
+      </c>
+      <c r="F57" s="3">
         <v>229900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>246300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>213500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>201200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>178200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>213100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>127900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>132700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>172200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>193000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>178500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>138300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>169600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>159400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>139500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>133700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>205000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>248800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>163500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>151200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>163600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>193600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3870,354 +4136,384 @@
         <v>600</v>
       </c>
       <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>600</v>
+      </c>
+      <c r="G58" s="3">
         <v>41200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>38400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>37900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>41600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>21400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>25200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>21100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>26200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>21900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>66400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>65900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>126400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>128000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>127700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>127100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>2100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>40200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>32700</v>
-      </c>
-      <c r="W58" s="3">
-        <v>26400</v>
-      </c>
-      <c r="X58" s="3">
-        <v>26400</v>
       </c>
       <c r="Y58" s="3">
         <v>26400</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>26400</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>233500</v>
+      </c>
+      <c r="F59" s="3">
         <v>305200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>281900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>269900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>268100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>338800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>315400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>310600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>309400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>360800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>314300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>282700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>292400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>309800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>283800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>240300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>263100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>302000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>264500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>217800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>209100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>224600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>204200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>421300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>432700</v>
+      </c>
+      <c r="F60" s="3">
         <v>535600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>569400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>521800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>507200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>558500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>549900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>463700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>463200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>559200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>529100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>527600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>496500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>605800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>571200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>507500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>523900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>509100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>553500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>414100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>386700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>414600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>248900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>183900</v>
+      </c>
+      <c r="F61" s="3">
         <v>141400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>97400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>139700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>157200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>185900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>217900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>243900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>298500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>178800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>242100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>162000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>161100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>269800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>269100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>268400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>335500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>443900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>444300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>613600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>589700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>610000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>697400</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>219200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>219300</v>
+      </c>
+      <c r="F62" s="3">
         <v>226400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>246300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>266600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>275800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>294100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>331000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>347100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>354500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>362900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>359500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>379000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>383000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>111000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>99600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>113500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>129700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>124400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>99600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>93500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>142900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>146900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>151100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4287,8 +4583,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4358,8 +4660,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4429,79 +4737,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>886200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>838200</v>
+      </c>
+      <c r="F66" s="3">
         <v>905500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>915000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>929600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>941300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1039400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1099500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1055300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1117100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1101700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1131400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1069000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1044200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>989700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>942700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>891200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>994200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1082200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1109100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1132900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1129800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1180700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1284900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4527,8 +4847,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4598,8 +4920,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4669,8 +4997,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4740,8 +5074,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4811,79 +5151,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>179100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>198100</v>
+      </c>
+      <c r="F72" s="3">
         <v>229100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>209500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>178100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>179300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>203700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>207700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>191700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>214200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>299800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>306700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>332600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>339900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>381600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>332000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>327000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>334800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>409700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>489500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>494900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>839600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>887800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>838100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4953,8 +5305,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5024,8 +5382,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5095,79 +5459,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>397300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>427200</v>
+      </c>
+      <c r="F76" s="3">
         <v>463200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>440900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>407900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>407800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>439100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>422800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>396100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>415400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>503100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>509300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>539200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>545700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>585500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>526800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>515000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>521400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>576100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>641300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>643000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>971900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1006200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>972700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5237,155 +5613,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44107</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44016</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43925</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F81" s="3">
         <v>19600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>31400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-24400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>16000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-22500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-85600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-25900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-7300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-12200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>47600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>5000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-7800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-48300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-79900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-5400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-344700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-48200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>49700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5411,79 +5805,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E83" s="3">
         <v>6200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G83" s="3">
         <v>7000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>7500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>8900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>10000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>10300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>10700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>12200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>12900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>13500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>13900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>14400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>20400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>16100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>15100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>16000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>19400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>19400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>21200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>20900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>21400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5553,8 +5955,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5624,8 +6032,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5695,8 +6109,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5766,8 +6186,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5837,79 +6263,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="F89" s="3">
         <v>87000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-27200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>28100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-37800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>5400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>84200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>88800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-77100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>124000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-112100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-33700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>7600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>175700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>81700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-4300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>119400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>24800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-16000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>51400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>150800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5935,79 +6373,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-6800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-6600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-2400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-3800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-8300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-4500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-8400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-8800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-12200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6077,8 +6523,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6148,79 +6600,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>15100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-7600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-4900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>35300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-3800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-3900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-8500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-4100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-7800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-4300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-7500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6246,8 +6710,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6317,8 +6783,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6388,8 +6860,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6459,8 +6937,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6530,217 +7014,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>32100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-15100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-41200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-22100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-34200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-14900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-32900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-53700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>112300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-66300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>36300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-6100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-172400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-71700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>12000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-45200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-162900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>28500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-22000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-92600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F101" s="3">
         <v>1300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-6600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>4100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-2600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>12500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>2600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-2300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>4800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>3500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>4700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-3600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-1300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-10600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-5600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-1600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>10800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-88800</v>
+      </c>
+      <c r="F102" s="3">
         <v>68800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-71300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>6300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-63500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-6800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>46400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>32500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>44500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>52700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-79400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-44600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-131800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>173100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-5800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>11900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>64300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-152900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>23500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>61400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>FOSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,339 +665,351 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44107</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44016</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43925</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>436300</v>
+      </c>
+      <c r="E8" s="3">
         <v>371200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>375900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>604200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>491800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>410900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>363000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>528100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>435500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>259000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>390700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>711600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>539500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>501400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>465300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>786900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>608800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>576600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>569200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>920800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>688700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>596800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>581800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>959200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>738000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>216700</v>
+      </c>
+      <c r="E9" s="3">
         <v>179800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>191500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>301800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>232300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>189100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>180500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>268500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>205700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>118400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>250400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>403700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>260900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>236300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>217300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>370000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>282300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>267600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>281500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>472700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>368800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>295500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>292300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>470100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>219600</v>
+      </c>
+      <c r="E10" s="3">
         <v>191400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>184400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>302400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>259500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>221800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>182500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>259600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>229800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>140600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>140300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>307900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>278600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>265100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>248000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>416900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>326500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>309000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>287700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>448100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>319900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>301300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>289500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>489100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>385100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1025,8 +1037,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1102,8 +1115,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1179,85 +1195,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
         <v>3100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>17800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>28600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>25100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>21000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>23500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>416900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>26300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>13300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1270,8 +1292,8 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>100</v>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -1301,10 +1323,10 @@
         <v>100</v>
       </c>
       <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
         <v>400</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1315,8 +1337,8 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1333,8 +1355,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1359,162 +1384,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>413800</v>
+      </c>
+      <c r="E17" s="3">
         <v>382100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>390100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>557000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>444000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>396600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>379800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>509800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>418000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>295800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>525100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>715600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>548600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>499700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>485200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>719600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>586200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>575600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>598100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>869600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>689200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1026600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>627100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>893000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>706800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-14200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>47200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>47800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>18300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-36800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-134400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-19900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>67300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>22600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-28900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>51200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-429800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-45300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>66200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1542,393 +1574,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-15400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-500</v>
       </c>
       <c r="H20" s="3">
         <v>-500</v>
       </c>
       <c r="I20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>25900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>5600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>7600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>38100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>54300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>21300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>29900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-25200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-129400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>14000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>16100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>93100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>35800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>15500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-14200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>72900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>22800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-406600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-18700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>95200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>56300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E22" s="3">
         <v>4300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>7400</v>
       </c>
       <c r="P22" s="3">
         <v>7400</v>
       </c>
       <c r="Q22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="R22" s="3">
         <v>8100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>11100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>11100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>12100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>11600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>7500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>27100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>40900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-22200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-43800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-149100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>61800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-10600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-40900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>42400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-8700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-439400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-48000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>66300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-20800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-63700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>87000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-3200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-96300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>15500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2004,162 +2052,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>31900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-24300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-85400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-24900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>47900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-47500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-44600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-343100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-46800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>50800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>31400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-24400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-85600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-25900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>47600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-48300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-46300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-344700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-48200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>49700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2235,8 +2292,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2276,8 +2336,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2294,11 +2354,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-33600</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2312,8 +2372,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2389,8 +2452,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2466,162 +2532,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>15400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>500</v>
       </c>
       <c r="H32" s="3">
         <v>500</v>
       </c>
       <c r="I32" s="3">
+        <v>500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-25900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>31400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-24400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-85600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-25900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>47600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-48300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-79900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-344700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-48200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>49700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2697,167 +2772,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>31400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-24400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-85600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-25900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>47600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-48300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-79900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-344700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-48200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>49700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44107</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44016</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43925</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2885,8 +2969,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2914,85 +2999,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>162600</v>
+      </c>
+      <c r="E41" s="3">
         <v>167100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>162600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>250800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>181800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>252300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>246700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>316000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>323600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>277600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>245400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>147500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>226600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>271400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>403400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>236100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>241800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>229900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>231200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>166900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>319800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>320700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>297300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>236000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3068,316 +3157,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E43" s="3">
         <v>176500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>201100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>255100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>251500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>187600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>175500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>229800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>189800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>130100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>153400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>289700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>247600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>204200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>199900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>328000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>261700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>204700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>234200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>367000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>310900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>240400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>245300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>375500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>452700</v>
+      </c>
+      <c r="E44" s="3">
         <v>437900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>385800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>346900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>398300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>352000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>322500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>295300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>359500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>375900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>439700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>452300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>570300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>460300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>384100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>377600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>521300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>497800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>530700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>573800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>683000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>618100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>571500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>542500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E45" s="3">
         <v>183300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>187700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>169900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>155800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>157300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>202400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>149400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>134900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>98100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>128600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>117200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>126400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>124400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>133100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>149600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>129400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>125000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>161700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>118900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>125500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>126500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>142800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>132000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>132700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1015300</v>
+      </c>
+      <c r="E46" s="3">
         <v>964800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>937200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1022800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>987500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>949200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>947100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>990500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1007800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>881700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>967100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1059500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1091700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1015500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>988500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1258600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1148500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1069300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1156400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1291000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1286300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1304800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1280300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1347300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1389600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3385,40 +3489,40 @@
         <v>300</v>
       </c>
       <c r="E47" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F47" s="3">
         <v>400</v>
       </c>
       <c r="G47" s="3">
+        <v>400</v>
+      </c>
+      <c r="H47" s="3">
         <v>5400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>6800</v>
       </c>
       <c r="I47" s="3">
         <v>6800</v>
       </c>
       <c r="J47" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K47" s="3">
         <v>59100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>58000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>90400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>67000</v>
-      </c>
-      <c r="N47" s="3">
-        <v>7000</v>
       </c>
       <c r="O47" s="3">
         <v>7000</v>
       </c>
       <c r="P47" s="3">
-        <v>7600</v>
+        <v>7000</v>
       </c>
       <c r="Q47" s="3">
         <v>7600</v>
@@ -3427,7 +3531,7 @@
         <v>7600</v>
       </c>
       <c r="S47" s="3">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="T47" s="3">
         <v>1000</v>
@@ -3439,13 +3543,13 @@
         <v>1000</v>
       </c>
       <c r="W47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X47" s="3">
         <v>900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>7400</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>8</v>
@@ -3453,162 +3557,171 @@
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>233800</v>
+      </c>
+      <c r="E48" s="3">
         <v>249200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>251800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>267400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>280700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>297100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>316800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>340800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>363000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>387200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>407800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>439700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>447100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>470600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>484700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>183200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>190600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>200100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>208500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>219700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>243400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>255800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>260400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>273900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>290800</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E49" s="3">
         <v>13000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>15000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>15800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>22400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>28000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>46400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>48100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>68300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>71300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>74300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>83900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>86700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>89500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>92500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>499800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>502400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>515800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3684,8 +3797,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3761,85 +3877,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E52" s="3">
         <v>56100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>62300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>63900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>67400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>68600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>61900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>70400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>74300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>71300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>68200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>71700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>66800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>68100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>61100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>57600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>58100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>61600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>65900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>59900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>130100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>115500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>61100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>63400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>61500</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3915,85 +4037,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1315000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1283400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1265300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1368700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1356000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1337400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1349100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1478500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1522300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1451300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1532600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1604700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1640600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1608200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1589900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1575200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1469500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1406200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1515700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1658400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1750400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1776000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2101700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2186900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2257600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4021,8 +4149,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4050,90 +4179,94 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E57" s="3">
         <v>208700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>198500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>229900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>246300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>213500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>201200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>178200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>213100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>127900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>132700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>172200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>193000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>178500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>138300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>169600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>159400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>139500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>133700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>205000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>248800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>163500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>151200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>163600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>193600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
@@ -4142,61 +4275,61 @@
         <v>600</v>
       </c>
       <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
         <v>41200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>38400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>37900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>41600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>25200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>26200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>21900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>66400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>65900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>126400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>128000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>127700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>127100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>40200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>32700</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>26400</v>
       </c>
       <c r="Z58" s="3">
         <v>26400</v>
@@ -4204,316 +4337,331 @@
       <c r="AA58" s="3">
         <v>26400</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>224300</v>
+      </c>
+      <c r="E59" s="3">
         <v>212000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>233500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>305200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>281900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>269900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>268100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>338800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>315400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>310600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>309400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>360800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>314300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>282700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>292400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>309800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>283800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>240300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>263100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>302000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>264500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>217800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>209100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>224600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>204200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>428700</v>
+      </c>
+      <c r="E60" s="3">
         <v>421300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>432700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>535600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>569400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>521800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>507200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>558500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>549900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>463700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>463200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>559200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>529100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>527600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>496500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>605800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>571200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>507500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>523900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>509100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>553500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>414100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>386700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>414600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>293600</v>
+      </c>
+      <c r="E61" s="3">
         <v>248900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>183900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>141400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>97400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>139700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>157200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>185900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>217900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>243900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>298500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>178800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>242100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>162000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>161100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>269800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>269100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>268400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>335500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>443900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>444300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>613600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>589700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>610000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>697400</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>202400</v>
+      </c>
+      <c r="E62" s="3">
         <v>219200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>219300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>226400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>246300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>266600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>275800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>294100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>331000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>347100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>354500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>362900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>359500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>379000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>383000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>111000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>99600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>113500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>129700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>124400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>99600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>93500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>142900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>146900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>151100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4589,8 +4737,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4666,8 +4817,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4743,85 +4897,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>921900</v>
+      </c>
+      <c r="E66" s="3">
         <v>886200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>838200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>905500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>915000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>929600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>941300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1039400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1099500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1055300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1117100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1101700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1131400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1069000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1044200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>989700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>942700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>891200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>994200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1082200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1109100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1132900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1129800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1180700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1284900</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4849,8 +5009,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4926,8 +5087,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5003,8 +5167,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5080,8 +5247,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5157,85 +5327,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>184900</v>
+      </c>
+      <c r="E72" s="3">
         <v>179100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>198100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>229100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>209500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>178100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>179300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>203700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>207700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>191700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>214200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>299800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>306700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>332600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>339900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>381600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>332000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>327000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>334800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>409700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>489500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>494900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>839600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>887800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>838100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5311,8 +5487,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5388,8 +5567,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5465,85 +5647,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>393000</v>
+      </c>
+      <c r="E76" s="3">
         <v>397300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>427200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>463200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>440900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>407900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>407800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>439100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>422800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>396100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>415400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>503100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>509300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>539200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>545700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>585500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>526800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>515000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>521400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>576100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>641300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>643000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>971900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1006200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>972700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5619,167 +5807,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44107</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44016</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43925</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>31400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-24400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-85600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-25900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>47600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-48300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-79900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-344700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-48200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>49700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5807,85 +6004,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E83" s="3">
         <v>5800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>6200</v>
       </c>
       <c r="F83" s="3">
         <v>6200</v>
       </c>
       <c r="G83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H83" s="3">
         <v>7000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>16100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>16000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>19400</v>
       </c>
       <c r="W83" s="3">
         <v>19400</v>
       </c>
       <c r="X83" s="3">
+        <v>19400</v>
+      </c>
+      <c r="Y83" s="3">
         <v>21200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>20900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>21400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5961,8 +6162,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6038,8 +6242,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6115,8 +6322,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6192,8 +6402,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6269,85 +6482,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-50700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-115000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>87000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-27200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>28100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-37800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>84200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>88800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-77100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>124000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-112100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>175700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>81700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>119400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>24800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>51400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>150800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6375,85 +6594,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-12200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6529,8 +6752,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6606,85 +6832,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>15100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>35300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-7500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6712,8 +6944,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6789,8 +7022,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6866,8 +7102,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6943,8 +7182,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7020,235 +7262,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E100" s="3">
         <v>56100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>32100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-41200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-22100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-34200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-32900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-53700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>112300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-66300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>36300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-172400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-71700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>12000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-45200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-162900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>28500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-22000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-92600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1300</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>12500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-2300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-10600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>10800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E102" s="3">
         <v>3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-88800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>68800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-71300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-63500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>46400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>32500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>44500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>52700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-79400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-44600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-131800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>173100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>64300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-152900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>23500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>61400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>FOSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,351 +665,377 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44198</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44107</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44016</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43925</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>325000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>499100</v>
+      </c>
+      <c r="F8" s="3">
         <v>436300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>371200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>375900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>604200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>491800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>410900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>363000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>528100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>435500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>259000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>390700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>711600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>539500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>501400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>465300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>786900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>608800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>576600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>569200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>920800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>688700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>596800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>581800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>959200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>738000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>159100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>263800</v>
+      </c>
+      <c r="F9" s="3">
         <v>216700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>179800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>191500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>301800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>232300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>189100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>180500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>268500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>205700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>118400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>250400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>403700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>260900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>236300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>217300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>370000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>282300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>267600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>281500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>472700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>368800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>295500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>292300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>470100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>165900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>235400</v>
+      </c>
+      <c r="F10" s="3">
         <v>219600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>191400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>184400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>302400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>259500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>221800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>182500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>259600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>229800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>140600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>140300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>307900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>278600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>265100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>248000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>416900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>326500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>309000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>287700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>448100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>319900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>301300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>289500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>489100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>385100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1038,8 +1064,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1118,8 +1146,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1198,88 +1232,100 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>3100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>6100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>6000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>7000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>12000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>17800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>9700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>14100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>28600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>12800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>25100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>9000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>11000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>4800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>6200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>21000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>23500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>6400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>5800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>416900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>26300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>13300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1295,11 +1341,11 @@
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>100</v>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
@@ -1326,13 +1372,13 @@
         <v>100</v>
       </c>
       <c r="R15" s="3">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+      <c r="T15" s="3">
         <v>400</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>8</v>
@@ -1340,11 +1386,11 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1358,8 +1404,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1385,168 +1437,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>362300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>497900</v>
+      </c>
+      <c r="F17" s="3">
         <v>413800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>382100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>390100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>557000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>444000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>396600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>379800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>509800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>418000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>295800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>525100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>715600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>548600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>499700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>485200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>719600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>586200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>575600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>598100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>869600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>689200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1026600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>627100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>893000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>706800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>22500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-10900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-14200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>47200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>47800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>14300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-16800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>18300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>17500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-36800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-134400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-4000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-19900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>67300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>22600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-28900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>51200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-429800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-45300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>66200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1575,408 +1641,440 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-15400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-7300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>25900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>5300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-2900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>2200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>3900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>2000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>5600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>7600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F21" s="3">
         <v>26300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-6800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-6500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>38100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>54300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>21300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-6000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>29900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>27800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-25200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-129400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>14000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>16100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>20400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>93100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>35800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>15500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-14200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>72900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>22800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-406600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-18700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>95200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>56300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F22" s="3">
         <v>5100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>4300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>4000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>4800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>6400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>6500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>8500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>8000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>7900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>7500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>7000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>7400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>7400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>8100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>10800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>9900</v>
-      </c>
-      <c r="U22" s="3">
-        <v>11100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>10700</v>
       </c>
       <c r="W22" s="3">
         <v>11100</v>
       </c>
       <c r="X22" s="3">
+        <v>10700</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>11100</v>
+      </c>
+      <c r="Z22" s="3">
         <v>12100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>11600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>8400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>7500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F23" s="3">
         <v>15500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-16900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-16700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>27100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>40900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>7300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-22200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>11400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>9500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-43800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-149100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-6000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-5200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>61800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>9900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-10600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-40900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>42400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-439400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-48000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>66300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F24" s="3">
         <v>9200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>7300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>9000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>8100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>15200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-6800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-20800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-63700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>6900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>9600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>13900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>3900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-3400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>6600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>87000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-96300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>15500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2055,168 +2153,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F26" s="3">
         <v>6300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-18900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-21300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>19800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>31900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-24300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>16200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-23000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-85400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-6700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-6600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-11800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>47900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>5900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-7200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-47500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-44600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-343100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-46800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>50800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F27" s="3">
         <v>5800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-19100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-21500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>19600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>31400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-24400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>16000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-22500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-85600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-6900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-7300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-12200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>47600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>5000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-7800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-48300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-46300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-344700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-48200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>49700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2295,8 +2411,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2339,11 +2461,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2357,14 +2479,14 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>-33600</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
+      <c r="Y29" s="3">
+        <v>-33600</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2375,8 +2497,14 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2455,8 +2583,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2535,168 +2669,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>15400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>7300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-25900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-5300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>2900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-2200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-7600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F33" s="3">
         <v>5800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-19100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-21500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>19600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>31400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-24400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>16000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-22500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-85600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-6900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-7300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-12200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>47600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>5000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-7800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-48300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-79900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-344700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-48200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>49700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2775,173 +2927,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F35" s="3">
         <v>5800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-19100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-21500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>19600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>31400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-24400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>16000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-22500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-85600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-6900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-7300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-12200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>47600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>5000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-7800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-48300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-79900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-344700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-48200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>49700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44198</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44107</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44016</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43925</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2970,8 +3140,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3000,88 +3172,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>162600</v>
+        <v>127100</v>
       </c>
       <c r="E41" s="3">
-        <v>167100</v>
+        <v>198700</v>
       </c>
       <c r="F41" s="3">
         <v>162600</v>
       </c>
       <c r="G41" s="3">
+        <v>167100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>162600</v>
+      </c>
+      <c r="I41" s="3">
         <v>250800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>181800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>252300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>246700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>316000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>323600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>277600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>245400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>200200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>147500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>226600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>271400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>403400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>236100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>241800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>229900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>231200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>166900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>319800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>320700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>297300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>236000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3160,384 +3340,414 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>168900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>206100</v>
+      </c>
+      <c r="F43" s="3">
         <v>215000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>176500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>201100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>255100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>251500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>187600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>175500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>229800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>189800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>130100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>153400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>289700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>247600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>204200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>199900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>328000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>261700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>204700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>234200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>367000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>310900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>240400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>245300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>375500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>336500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>376000</v>
+      </c>
+      <c r="F44" s="3">
         <v>452700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>437900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>385800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>346900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>398300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>352000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>322500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>295300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>359500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>375900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>439700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>452300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>570300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>460300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>384100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>377600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>521300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>497800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>530700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>573800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>683000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>618100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>571500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>542500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>171900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>164400</v>
+      </c>
+      <c r="F45" s="3">
         <v>185000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>183300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>187700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>169900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>155800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>157300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>202400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>149400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>134900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>98100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>128600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>117200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>126400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>124400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>133100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>149600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>129400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>125000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>161700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>118900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>125500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>126500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>142800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>132000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>132700</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>804500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>945300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1015300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>964800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>937200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1022800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>987500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>949200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>947100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>990500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1007800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>881700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>967100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1059500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1091700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1015500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>988500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1258600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1148500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1069300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1156400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1291000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1286300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1304800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1280300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1347300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>1389600</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
         <v>300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>5400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>6800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>6800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>59100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>58000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>90400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>67000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>7000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>7000</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>7600</v>
-      </c>
-      <c r="R47" s="3">
-        <v>7600</v>
       </c>
       <c r="S47" s="3">
         <v>7600</v>
       </c>
       <c r="T47" s="3">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="U47" s="3">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="V47" s="3">
         <v>1000</v>
@@ -3546,182 +3756,200 @@
         <v>1000</v>
       </c>
       <c r="X47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z47" s="3">
         <v>900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>7400</v>
-      </c>
-      <c r="Z47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>225700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>236800</v>
+      </c>
+      <c r="F48" s="3">
         <v>233800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>249200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>251800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>267400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>280700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>297100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>316800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>340800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>363000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>387200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>407800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>439700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>447100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>470600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>484700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>183200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>190600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>200100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>208500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>219700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>243400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>255800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>260400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>273900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>290800</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F49" s="3">
         <v>12400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>13000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>13600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>14300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>15000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>15800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>16500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>17800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>19300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>20800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>22400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>26900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>28000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>46400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>48100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>68300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>71300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>74300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>83900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>86700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>89500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>92500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>499800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>502400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>515800</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3800,8 +4028,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3880,88 +4114,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>44100</v>
+      </c>
+      <c r="F52" s="3">
         <v>53100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>56100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>62300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>63900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>67400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>68600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>61900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>70400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>74300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>71300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>68200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>71700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>66800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>68100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>61100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>57600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>58100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>61600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>65900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>59900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>130100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>115500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>61100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>63400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>61500</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4040,88 +4286,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1086000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1238100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1315000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1283400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1265300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1368700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1356000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1337400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1349100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1478500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1522300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1451300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1532600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1604700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1640600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1608200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1589900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1575200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1469500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1406200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1515700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1658400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1750400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1776000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>2101700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>2186900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>2257600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4150,8 +4408,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4180,488 +4440,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>120100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>191100</v>
+      </c>
+      <c r="F57" s="3">
         <v>204000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>208700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>198500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>229900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>246300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>213500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>201200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>178200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>213100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>127900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>132700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>172200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>193000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>178500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>138300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>169600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>159400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>139500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>133700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>205000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>248800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>163500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>151200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>163600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>193600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
       </c>
       <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3">
         <v>41200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>38400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>37900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>41600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>21400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>25200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>21100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>26200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>21900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>66400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>65900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>126400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>128000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>127700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>127100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>2100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>40200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>32700</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>26400</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>26400</v>
       </c>
       <c r="AB58" s="3">
         <v>26400</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>26400</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>184600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>234400</v>
+      </c>
+      <c r="F59" s="3">
         <v>224300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>212000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>233500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>305200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>281900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>269900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>268100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>338800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>315400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>310600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>309400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>360800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>314300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>282700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>292400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>309800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>283800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>240300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>263100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>302000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>264500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>217800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>209100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>224600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>204200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>305100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>425900</v>
+      </c>
+      <c r="F60" s="3">
         <v>428700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>421300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>432700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>535600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>569400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>521800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>507200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>558500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>549900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>463700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>463200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>559200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>529100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>527600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>496500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>605800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>571200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>507500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>523900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>509100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>553500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>414100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>386700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>414600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>234600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>216100</v>
+      </c>
+      <c r="F61" s="3">
         <v>293600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>248900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>183900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>141400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>97400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>139700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>157200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>185900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>217900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>243900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>298500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>178800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>242100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>162000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>161100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>269800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>269100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>268400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>335500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>443900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>444300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>613600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>589700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>610000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>697400</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>193100</v>
+      </c>
+      <c r="F62" s="3">
         <v>202400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>219200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>219300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>226400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>246300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>266600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>275800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>294100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>331000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>347100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>354500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>362900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>359500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>379000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>383000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>111000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>99600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>113500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>129700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>124400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>99600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>93500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>142900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>146900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>151100</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4740,8 +5038,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4820,8 +5124,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4900,88 +5210,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>716900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>832200</v>
+      </c>
+      <c r="F66" s="3">
         <v>921900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>886200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>838200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>905500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>915000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>929600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>941300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1039400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1099500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1055300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1117100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1101700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1131400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1069000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1044200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>989700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>942700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>891200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>994200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1082200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1109100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1132900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1129800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1180700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1284900</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5010,8 +5332,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5090,8 +5414,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5170,8 +5500,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5250,8 +5586,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5330,88 +5672,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>175500</v>
+      </c>
+      <c r="F72" s="3">
         <v>184900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>179100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>198100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>229100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>209500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>178100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>179300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>203700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>207700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>191700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>214200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>299800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>306700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>332600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>339900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>381600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>332000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>327000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>334800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>409700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>489500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>494900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>839600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>887800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>838100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5490,8 +5844,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5570,8 +5930,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5650,88 +6016,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>369100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>405900</v>
+      </c>
+      <c r="F76" s="3">
         <v>393000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>397300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>427200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>463200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>440900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>407900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>407800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>439100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>422800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>396100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>415400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>503100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>509300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>539200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>545700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>585500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>526800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>515000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>521400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>576100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>641300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>643000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>971900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1006200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>972700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5810,173 +6188,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44198</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44107</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44016</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43925</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F81" s="3">
         <v>5800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-19100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-21500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>19600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>31400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-24400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>16000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-22500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-85600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-6900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-7300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-12200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>47600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>5000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-7800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-48300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-79900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-344700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-48200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>49700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6005,88 +6401,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F83" s="3">
         <v>5600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>5800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>6200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>6200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>7000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>7500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>8900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>10000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>10300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>10700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>12200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>12900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>13500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>13900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>14400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>20400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>16100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>15100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>16000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>19400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>19400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>21200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>20900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>21400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6165,8 +6569,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6245,8 +6655,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6325,8 +6741,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6405,8 +6827,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6485,88 +6913,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-85900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>103900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-49000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-50700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-115000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>87000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-27200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>28100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-37800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>5400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>84200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>88800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-77100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>124000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-112100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-33700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>7600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>175700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-4900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>81700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-4300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>119400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>24800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>51400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>150800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6595,88 +7035,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-6800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-6600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-7800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-3900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-2400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-3800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-8300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-12200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6755,8 +7203,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6835,88 +7289,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>15100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-7600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-4900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>35300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-5100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-3800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-2800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-3900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-8500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-7500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6945,8 +7411,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7025,8 +7493,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7105,8 +7579,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7185,8 +7665,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7265,244 +7751,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="F100" s="3">
         <v>44000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>56100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>32100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-15100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-41200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-22100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-34200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-14900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-32900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-53700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>112300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-66300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>36300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-6100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-172400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-2300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-71700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>12000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-45200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-162900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>28500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-22000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-92600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F101" s="3">
         <v>3200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-3500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-6600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>4100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-2600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>12500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>2600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-2300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>4800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>3500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>4700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-3600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-1300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-10600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>10800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-71800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>30400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-88800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>68800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-71300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-63500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-6800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>46400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>32500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>44500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>52700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-79400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-44600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-131800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>173100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-5800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>11900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>64300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-152900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>23500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>61400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>FOSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,377 +665,389 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44107</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44016</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43925</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E8" s="3">
         <v>325000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>499100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>436300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>371200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>375900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>604200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>491800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>410900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>363000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>528100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>435500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>259000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>390700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>711600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>539500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>501400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>465300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>786900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>608800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>576600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>569200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>920800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>688700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>596800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>581800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>959200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>738000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>162400</v>
+      </c>
+      <c r="E9" s="3">
         <v>159100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>263800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>216700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>179800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>191500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>301800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>232300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>189100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>180500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>268500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>205700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>118400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>250400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>403700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>260900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>236300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>217300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>370000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>282300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>267600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>281500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>472700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>368800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>295500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>292300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>470100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>159600</v>
+      </c>
+      <c r="E10" s="3">
         <v>165900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>235400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>219600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>191400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>184400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>302400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>259500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>221800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>182500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>259600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>229800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>140600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>140300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>307900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>278600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>265100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>248000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>416900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>326500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>309000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>287700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>448100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>319900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>301300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>289500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>489100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>385100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1066,8 +1078,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1152,8 +1165,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1238,94 +1254,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E14" s="3">
         <v>12400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>28600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>25100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>21000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>23500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>6400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>5800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>416900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>26300</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>13300</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1347,8 +1369,8 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
-        <v>100</v>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1378,10 +1400,10 @@
         <v>100</v>
       </c>
       <c r="T15" s="3">
+        <v>100</v>
+      </c>
+      <c r="U15" s="3">
         <v>400</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>8</v>
@@ -1392,8 +1414,8 @@
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1410,8 +1432,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1439,180 +1464,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>357300</v>
+      </c>
+      <c r="E17" s="3">
         <v>362300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>497900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>413800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>382100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>390100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>557000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>444000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>396600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>379800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>509800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>418000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>295800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>525100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>715600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>548600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>499700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>485200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>719600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>586200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>575600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>598100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>869600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>689200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1026600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>627100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>893000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>706800</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-37300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>47200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>47800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-16800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-36800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-134400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-19900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>67300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>22600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-28900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>51200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-429800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-45300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>66200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1643,438 +1675,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E20" s="3">
         <v>2800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-15400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-500</v>
       </c>
       <c r="K20" s="3">
         <v>-500</v>
       </c>
       <c r="L20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>25900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>5600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>7600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-29500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>26300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>38100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>54300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>29900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>27800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-25200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-129400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>14000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>16100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>93100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>35800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>15500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-14200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>72900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>22800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-406600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-18700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>95200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>56300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E22" s="3">
         <v>5000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>7400</v>
       </c>
       <c r="S22" s="3">
         <v>7400</v>
       </c>
       <c r="T22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="U22" s="3">
         <v>8100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>11100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>11100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>12100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>11600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>8400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>7500</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-39600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>27100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>40900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-22200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-43800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-149100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-18000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>61800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-10600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-40900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>42400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-8700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-439400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-48000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>66300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-20800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-63700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-3400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>87000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-96300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>15500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2159,180 +2207,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-41200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-24300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-85400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-24900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>47900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-47500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-44600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-5500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-343100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-46800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>50800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-41300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-19100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-24400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-22500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-85600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-25900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-12200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>47600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-48300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-46300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-344700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-48200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>49700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2417,8 +2474,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2467,8 +2527,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2485,11 +2545,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-33600</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2503,8 +2563,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2589,8 +2652,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2675,180 +2741,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>15400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>500</v>
       </c>
       <c r="K32" s="3">
         <v>500</v>
       </c>
       <c r="L32" s="3">
+        <v>500</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-25900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-7600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-41300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>19600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-24400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-22500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-85600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-25900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-12200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>47600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-7800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-48300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-79900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-344700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-48200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>49700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2933,185 +3008,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-41300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>19600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>31400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-24400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-22500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-85600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-25900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-12200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>47600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-7800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-48300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-79900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-344700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-48200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>49700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44107</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44016</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43925</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3142,8 +3226,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3174,94 +3259,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>132100</v>
+      </c>
+      <c r="E41" s="3">
         <v>127100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>198700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>162600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>167100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>162600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>250800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>181800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>252300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>246700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>316000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>323600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>277600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>245400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>147500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>226600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>271400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>403400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>236100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>241800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>229900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>231200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>166900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>319800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>320700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>297300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>236000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3346,352 +3435,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>162700</v>
+      </c>
+      <c r="E43" s="3">
         <v>168900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>206100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>215000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>176500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>201100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>255100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>251500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>187600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>175500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>229800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>189800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>130100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>153400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>289700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>247600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>204200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>199900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>328000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>261700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>204700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>234200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>367000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>310900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>240400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>245300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>375500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>323900</v>
+      </c>
+      <c r="E44" s="3">
         <v>336500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>376000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>452700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>437900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>385800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>346900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>398300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>352000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>322500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>295300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>359500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>375900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>439700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>452300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>570300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>460300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>384100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>377600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>521300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>497800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>530700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>573800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>683000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>618100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>571500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>542500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>178800</v>
+      </c>
+      <c r="E45" s="3">
         <v>171900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>164400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>185000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>183300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>187700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>169900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>155800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>157300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>202400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>149400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>134900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>98100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>128600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>117200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>126400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>124400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>133100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>149600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>129400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>125000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>161700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>118900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>125500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>126500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>142800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>132000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>132700</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>797600</v>
+      </c>
+      <c r="E46" s="3">
         <v>804500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>945300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1015300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>964800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>937200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1022800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>987500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>949200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>947100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>990500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1007800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>881700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>967100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1059500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1091700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1015500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>988500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1258600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1148500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1069300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1156400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1291000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1286300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1304800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1280300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1347300</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1389600</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3701,47 +3805,47 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>300</v>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3">
         <v>300</v>
       </c>
       <c r="H47" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I47" s="3">
         <v>400</v>
       </c>
       <c r="J47" s="3">
+        <v>400</v>
+      </c>
+      <c r="K47" s="3">
         <v>5400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>6800</v>
       </c>
       <c r="L47" s="3">
         <v>6800</v>
       </c>
       <c r="M47" s="3">
+        <v>6800</v>
+      </c>
+      <c r="N47" s="3">
         <v>59100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>58000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>90400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>67000</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>7000</v>
       </c>
       <c r="R47" s="3">
         <v>7000</v>
       </c>
       <c r="S47" s="3">
-        <v>7600</v>
+        <v>7000</v>
       </c>
       <c r="T47" s="3">
         <v>7600</v>
@@ -3750,7 +3854,7 @@
         <v>7600</v>
       </c>
       <c r="V47" s="3">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="W47" s="3">
         <v>1000</v>
@@ -3762,13 +3866,13 @@
         <v>1000</v>
       </c>
       <c r="Z47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA47" s="3">
         <v>900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>7400</v>
-      </c>
-      <c r="AB47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC47" s="3" t="s">
         <v>8</v>
@@ -3776,180 +3880,189 @@
       <c r="AD47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>220800</v>
+      </c>
+      <c r="E48" s="3">
         <v>225700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>236800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>233800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>249200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>251800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>267400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>280700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>297100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>316800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>340800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>363000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>387200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>407800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>439700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>447100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>470600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>484700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>183200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>190600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>200100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>208500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>219700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>243400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>255800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>260400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>273900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>290800</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E49" s="3">
         <v>11800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>15000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>19300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>22400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>26900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>28000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>46400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>48100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>68300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>71300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>74300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>83900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>86700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>89500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>92500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>499800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>502400</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>515800</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4034,8 +4147,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4120,94 +4236,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E52" s="3">
         <v>44000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>44100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>53100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>56100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>62300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>63900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>67400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>68600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>61900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>70400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>74300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>71300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>68200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>71700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>66800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>68100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>61100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>57600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>58100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>61600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>65900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>59900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>130100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>115500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>61100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>63400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>61500</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4292,94 +4414,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1073400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1086000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1238100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1315000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1283400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1265300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1368700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1356000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1337400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1349100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1478500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1522300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1451300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1532600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1604700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1640600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1608200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1589900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1575200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1469500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1406200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1515700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1658400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1750400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1776000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2101700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2186900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2257600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4410,8 +4538,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4442,108 +4571,112 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>139800</v>
+      </c>
+      <c r="E57" s="3">
         <v>120100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>191100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>204000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>208700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>198500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>229900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>246300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>213500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>201200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>178200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>213100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>127900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>132700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>172200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>193000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>178500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>138300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>169600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>159400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>139500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>133700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>205000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>248800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>163500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>151200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>163600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>193600</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
@@ -4552,61 +4685,61 @@
         <v>600</v>
       </c>
       <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
         <v>41200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>38400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>37900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>41600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>25200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>21100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>26200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>21900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>66400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>65900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>126400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>128000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>127700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>127100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>40200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>32700</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>26400</v>
       </c>
       <c r="AC58" s="3">
         <v>26400</v>
@@ -4614,352 +4747,367 @@
       <c r="AD58" s="3">
         <v>26400</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>181200</v>
+      </c>
+      <c r="E59" s="3">
         <v>184600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>234400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>224300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>212000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>233500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>305200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>281900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>269900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>268100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>338800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>315400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>310600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>309400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>360800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>314300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>282700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>292400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>309800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>283800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>240300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>263100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>302000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>264500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>217800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>209100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>224600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>204200</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>321500</v>
+      </c>
+      <c r="E60" s="3">
         <v>305100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>425900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>428700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>421300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>432700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>535600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>569400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>521800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>507200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>558500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>549900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>463700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>463200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>559200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>529100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>527600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>496500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>605800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>571200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>507500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>523900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>509100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>553500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>414100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>386700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>414600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>243000</v>
+      </c>
+      <c r="E61" s="3">
         <v>234600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>216100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>293600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>248900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>183900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>141400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>97400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>139700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>157200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>185900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>217900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>243900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>298500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>178800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>242100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>162000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>161100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>269800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>269100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>268400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>335500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>443900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>444300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>613600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>589700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>610000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>697400</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>171900</v>
+      </c>
+      <c r="E62" s="3">
         <v>180000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>193100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>202400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>219200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>219300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>226400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>246300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>266600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>275800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>294100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>331000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>347100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>354500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>362900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>359500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>379000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>383000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>111000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>99600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>113500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>129700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>124400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>99600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>93500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>142900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>146900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>151100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5044,8 +5192,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5130,8 +5281,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5216,94 +5370,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>733900</v>
+      </c>
+      <c r="E66" s="3">
         <v>716900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>832200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>921900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>886200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>838200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>905500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>915000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>929600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>941300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1039400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1099500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1055300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1117100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1101700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1131400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1069000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1044200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>989700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>942700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>891200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>994200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1082200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1109100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1132900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1129800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1180700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1284900</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5334,8 +5494,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5420,8 +5581,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5506,8 +5670,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5592,8 +5759,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5678,94 +5848,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>107700</v>
+      </c>
+      <c r="E72" s="3">
         <v>134200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>175500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>184900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>179100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>198100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>229100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>209500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>178100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>179300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>203700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>207700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>191700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>214200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>299800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>306700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>332600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>339900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>381600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>332000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>327000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>334800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>409700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>489500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>494900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>839600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>887800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>838100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5850,8 +6026,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5936,8 +6115,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6022,94 +6204,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>339500</v>
+      </c>
+      <c r="E76" s="3">
         <v>369100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>405900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>393000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>397300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>427200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>463200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>440900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>407900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>407800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>439100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>422800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>396100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>415400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>503100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>509300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>539200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>545700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>585500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>526800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>515000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>521400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>576100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>641300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>643000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>971900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1006200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>972700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6194,185 +6382,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44107</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44016</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43925</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-41300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>19600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>31400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-24400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-22500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-85600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-25900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-12200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>47600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-7800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-48300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-79900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-344700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-48200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>49700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6403,94 +6600,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E83" s="3">
         <v>5100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>6200</v>
       </c>
       <c r="I83" s="3">
         <v>6200</v>
       </c>
       <c r="J83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K83" s="3">
         <v>7000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>14400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>20400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>16100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>15100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>16000</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>19400</v>
       </c>
       <c r="Z83" s="3">
         <v>19400</v>
       </c>
       <c r="AA83" s="3">
+        <v>19400</v>
+      </c>
+      <c r="AB83" s="3">
         <v>21200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>20900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>21400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6575,8 +6776,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6661,8 +6865,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6747,8 +6954,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6833,8 +7043,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6919,94 +7132,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-85900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>103900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-49000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-50700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-115000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>87000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-27200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>28100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-37800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>84200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>88800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-77100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>124000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-112100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-33700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>175700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>81700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>119400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>24800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-16000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>51400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>150800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7037,94 +7256,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-8400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-8800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-12200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7209,8 +7432,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7295,94 +7521,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>15100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>35300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-8500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-7800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-7500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7413,8 +7645,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7499,8 +7732,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7585,8 +7821,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7671,8 +7910,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7757,262 +7999,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E100" s="3">
         <v>16500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-79200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>44000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>56100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>32100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-41200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-22100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-34200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-32900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-53700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>112300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-66300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>36300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-172400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-71700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>12000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-45200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-162900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>28500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-22000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-92600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>12500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-2300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-10600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>10800</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-71800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>30400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-88800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>68800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-71300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-63500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>46400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>32500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>44500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>52700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-79400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-44600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-131800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>173100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>11900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>64300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-152900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>23500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>61400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>4100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FOSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>FOSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,389 +665,402 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44198</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44107</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44016</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43925</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>344100</v>
+      </c>
+      <c r="E8" s="3">
         <v>322000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>325000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>499100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>436300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>371200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>375900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>604200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>491800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>410900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>363000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>528100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>435500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>259000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>390700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>711600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>539500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>501400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>465300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>786900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>608800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>576600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>569200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>920800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>688700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>596800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>581800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>959200</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>738000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>183800</v>
+      </c>
+      <c r="E9" s="3">
         <v>162400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>159100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>263800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>216700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>179800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>191500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>301800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>232300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>189100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>180500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>268500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>205700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>118400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>250400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>403700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>260900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>236300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>217300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>370000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>282300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>267600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>281500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>472700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>368800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>295500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>292300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>470100</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>160300</v>
+      </c>
+      <c r="E10" s="3">
         <v>159600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>165900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>235400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>219600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>191400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>184400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>302400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>259500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>221800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>182500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>259600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>229800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>140600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>140300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>307900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>278600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>265100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>248000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>416900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>326500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>309000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>287700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>448100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>319900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>301300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>289500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>489100</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>385100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1079,8 +1092,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1168,8 +1182,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1257,97 +1274,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E14" s="3">
         <v>7700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>17800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>28600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>25100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>11000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>6200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>21000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>23500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>6400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>5800</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>416900</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>26300</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>13300</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1372,8 +1395,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>100</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -1403,10 +1426,10 @@
         <v>100</v>
       </c>
       <c r="U15" s="3">
+        <v>100</v>
+      </c>
+      <c r="V15" s="3">
         <v>400</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>8</v>
@@ -1417,8 +1440,8 @@
       <c r="Y15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -1435,8 +1458,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1465,186 +1491,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>390500</v>
+      </c>
+      <c r="E17" s="3">
         <v>357300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>362300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>497900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>413800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>382100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>390100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>557000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>444000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>396600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>379800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>509800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>418000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>295800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>525100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>715600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>548600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>499700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>485200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>719600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>586200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>575600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>598100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>869600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>689200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1026600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>627100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>893000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>706800</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-35300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-37300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>22500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>47200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>47800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-16800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-36800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-134400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-19900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>67300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>22600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-28900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>51200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-429800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-45300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>66200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1676,453 +1709,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>7100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-15400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-500</v>
       </c>
       <c r="L20" s="3">
         <v>-500</v>
       </c>
       <c r="M20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>25900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>3900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>5600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>7600</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-23300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-29500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>26300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>38100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>54300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>29900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>27800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-25200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-129400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>14000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>16100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>20400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>93100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>35800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>15500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-14200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>72900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>22800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-406600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-18700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>95200</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>56300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E22" s="3">
         <v>5300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>7400</v>
       </c>
       <c r="T22" s="3">
         <v>7400</v>
       </c>
       <c r="U22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="V22" s="3">
         <v>8100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>9900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>11100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>11100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>12100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>11600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>8400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>7500</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-33500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-39600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-16700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>27100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>40900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-22200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-43800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-149100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-18000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>61800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>9900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-10600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-40900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>42400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-8700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-439400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-48000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>66300</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-20800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-63700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>87000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-96300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>15500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2210,186 +2259,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-41200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-24300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-85400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-24900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-11800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>47900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-47500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-44600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-5500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-343100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-46800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>50800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-41300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-19100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-24400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-85600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-25900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-12200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>47600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-48300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-46300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-5400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-344700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-48200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>49700</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2477,8 +2535,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2530,8 +2591,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2548,11 +2609,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-33600</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2566,8 +2627,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2655,8 +2719,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2744,186 +2811,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>15400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>500</v>
       </c>
       <c r="L32" s="3">
         <v>500</v>
       </c>
       <c r="M32" s="3">
+        <v>500</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-25900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-5600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-7600</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-41300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-24400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-85600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-25900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-12200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>47600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-48300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-79900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-5400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-344700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-48200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>49700</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3011,191 +3087,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-41300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-24400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-85600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-25900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-12200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>47600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-48300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-79900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-5400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-344700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-48200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>49700</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44198</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44107</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44016</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43925</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3227,8 +3312,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3260,97 +3346,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>116100</v>
+      </c>
+      <c r="E41" s="3">
         <v>132100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>127100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>198700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>162600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>167100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>162600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>250800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>181800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>252300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>246700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>316000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>323600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>277600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>245400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>147500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>226600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>271400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>403400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>236100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>241800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>229900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>231200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>166900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>319800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>320700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>297300</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>236000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3438,364 +3528,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E43" s="3">
         <v>162700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>168900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>206100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>215000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>176500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>201100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>255100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>251500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>187600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>175500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>229800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>189800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>130100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>153400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>289700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>247600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>204200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>199900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>328000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>261700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>204700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>234200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>367000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>310900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>240400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>245300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>375500</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>321300</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>326700</v>
+      </c>
+      <c r="E44" s="3">
         <v>323900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>336500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>376000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>452700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>437900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>385800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>346900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>398300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>352000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>322500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>295300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>359500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>375900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>439700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>452300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>570300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>460300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>384100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>377600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>521300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>497800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>530700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>573800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>683000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>618100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>571500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>542500</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E45" s="3">
         <v>178800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>171900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>164400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>185000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>183300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>187700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>169900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>155800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>157300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>202400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>149400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>134900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>98100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>128600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>117200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>126400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>124400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>133100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>149600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>129400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>125000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>161700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>118900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>125500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>126500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>142800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>132000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>132700</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>784900</v>
+      </c>
+      <c r="E46" s="3">
         <v>797600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>804500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>945300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1015300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>964800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>937200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1022800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>987500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>949200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>947100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>990500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1007800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>881700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>967100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1059500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1091700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1015500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>988500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1258600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1148500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1069300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1156400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1291000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1286300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1304800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1280300</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1347300</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1389600</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3808,47 +3913,47 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
-        <v>300</v>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
       </c>
       <c r="I47" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J47" s="3">
         <v>400</v>
       </c>
       <c r="K47" s="3">
+        <v>400</v>
+      </c>
+      <c r="L47" s="3">
         <v>5400</v>
-      </c>
-      <c r="L47" s="3">
-        <v>6800</v>
       </c>
       <c r="M47" s="3">
         <v>6800</v>
       </c>
       <c r="N47" s="3">
+        <v>6800</v>
+      </c>
+      <c r="O47" s="3">
         <v>59100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>58000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>90400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>67000</v>
-      </c>
-      <c r="R47" s="3">
-        <v>7000</v>
       </c>
       <c r="S47" s="3">
         <v>7000</v>
       </c>
       <c r="T47" s="3">
-        <v>7600</v>
+        <v>7000</v>
       </c>
       <c r="U47" s="3">
         <v>7600</v>
@@ -3857,7 +3962,7 @@
         <v>7600</v>
       </c>
       <c r="W47" s="3">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="X47" s="3">
         <v>1000</v>
@@ -3869,13 +3974,13 @@
         <v>1000</v>
       </c>
       <c r="AA47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB47" s="3">
         <v>900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>7400</v>
-      </c>
-      <c r="AC47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD47" s="3" t="s">
         <v>8</v>
@@ -3883,186 +3988,195 @@
       <c r="AE47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>223100</v>
+      </c>
+      <c r="E48" s="3">
         <v>220800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>225700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>236800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>233800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>249200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>251800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>267400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>280700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>297100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>316800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>340800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>363000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>387200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>407800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>439700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>447100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>470600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>484700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>183200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>190600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>200100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>208500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>219700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>243400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>255800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>260400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>273900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>290800</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E49" s="3">
         <v>11700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>19300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>22400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>26900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>28000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>46400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>48100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>68300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>71300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>74300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>83900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>86700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>89500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>92500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>499800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>502400</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>515800</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4150,8 +4264,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4239,97 +4356,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E52" s="3">
         <v>43300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>44000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>44100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>53100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>56100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>62300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>63900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>67400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>68600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>61900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>70400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>74300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>71300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>68200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>71700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>66800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>68100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>61100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>57600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>58100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>61600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>65900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>59900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>130100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>115500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>61100</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>63400</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>61500</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4417,97 +4540,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1063200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1073400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1086000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1238100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1315000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1283400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1265300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1368700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1356000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1337400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1349100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1478500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1522300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1451300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1532600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1604700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1640600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1608200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1589900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1575200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1469500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1406200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1515700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1658400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1750400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1776000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2101700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2186900</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>2257600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4539,8 +4668,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4572,114 +4702,118 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E57" s="3">
         <v>139800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>120100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>191100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>204000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>208700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>198500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>229900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>246300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>213500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>201200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>178200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>213100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>127900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>132700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>172200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>193000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>178500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>138300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>169600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>159400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>139500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>133700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>205000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>248800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>163500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>151200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>163600</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>193600</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>600</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
@@ -4688,61 +4822,61 @@
         <v>600</v>
       </c>
       <c r="K58" s="3">
+        <v>600</v>
+      </c>
+      <c r="L58" s="3">
         <v>41200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>38400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>37900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>41600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>21400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>25200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>21100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>26200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>21900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>66400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>65900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>126400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>128000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>127700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>127100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>40200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>32700</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>26400</v>
       </c>
       <c r="AD58" s="3">
         <v>26400</v>
@@ -4750,364 +4884,379 @@
       <c r="AE58" s="3">
         <v>26400</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>190100</v>
+      </c>
+      <c r="E59" s="3">
         <v>181200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>184600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>234400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>224300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>212000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>233500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>305200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>281900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>269900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>268100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>338800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>315400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>310600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>309400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>360800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>314300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>282700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>292400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>309800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>283800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>240300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>263100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>302000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>264500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>217800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>209100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>224600</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>204200</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>348600</v>
+      </c>
+      <c r="E60" s="3">
         <v>321500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>305100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>425900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>428700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>421300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>432700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>535600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>569400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>521800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>507200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>558500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>549900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>463700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>463200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>559200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>529100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>527600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>496500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>605800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>571200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>507500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>523900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>509100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>553500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>414100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>386700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>414600</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>424100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>255900</v>
+      </c>
+      <c r="E61" s="3">
         <v>243000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>234600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>216100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>293600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>248900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>183900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>141400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>97400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>139700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>157200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>185900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>217900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>243900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>298500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>178800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>242100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>162000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>161100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>269800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>269100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>268400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>335500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>443900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>444300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>613600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>589700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>610000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>697400</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E62" s="3">
         <v>171900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>180000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>193100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>202400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>219200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>219300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>226400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>246300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>266600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>275800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>294100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>331000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>347100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>354500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>362900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>359500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>379000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>383000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>111000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>99600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>113500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>129700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>124400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>99600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>93500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>142900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>146900</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>151100</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5195,8 +5344,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5284,8 +5436,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5373,97 +5528,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>782100</v>
+      </c>
+      <c r="E66" s="3">
         <v>733900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>716900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>832200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>921900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>886200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>838200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>905500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>915000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>929600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>941300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1039400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1099500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1055300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1117100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1101700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1131400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1069000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1044200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>989700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>942700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>891200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>994200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1082200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1109100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1132900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1129800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1180700</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1284900</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5495,8 +5656,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5584,8 +5746,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5673,8 +5838,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5762,8 +5930,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5851,97 +6022,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E72" s="3">
         <v>107700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>134200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>175500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>184900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>179100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>198100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>229100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>209500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>178100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>179300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>203700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>207700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>191700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>214200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>299800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>306700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>332600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>339900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>381600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>332000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>327000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>334800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>409700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>489500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>494900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>839600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>887800</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>838100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6029,8 +6206,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6118,8 +6298,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6207,97 +6390,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>281100</v>
+      </c>
+      <c r="E76" s="3">
         <v>339500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>369100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>405900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>393000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>397300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>427200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>463200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>440900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>407900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>407800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>439100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>422800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>396100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>415400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>503100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>509300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>539200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>545700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>585500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>526800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>515000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>521400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>576100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>641300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>643000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>971900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1006200</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>972700</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6385,191 +6574,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44198</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44107</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44016</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43925</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-41300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-24400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-85600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-25900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-12200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>47600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-48300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-79900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-5400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-344700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-48200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>49700</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6601,97 +6799,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E83" s="3">
         <v>4800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>6200</v>
       </c>
       <c r="J83" s="3">
         <v>6200</v>
       </c>
       <c r="K83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="L83" s="3">
         <v>7000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>14400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>20400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>16100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>16000</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>19400</v>
       </c>
       <c r="AA83" s="3">
         <v>19400</v>
       </c>
       <c r="AB83" s="3">
+        <v>19400</v>
+      </c>
+      <c r="AC83" s="3">
         <v>21200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>20900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>21400</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6779,8 +6981,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6868,8 +7073,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6957,8 +7165,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7046,8 +7257,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7135,97 +7349,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E89" s="3">
         <v>2800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-85900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>103900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-49000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-50700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-115000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>87000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-27200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>28100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-37800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>84200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>88800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-77100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>124000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-112100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-33700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>175700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>81700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>119400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>24800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-16000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>51400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>150800</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-12600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7257,97 +7477,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-8300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-8400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-8800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-12200</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7435,8 +7659,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7524,97 +7751,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>15100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>35300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-8500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-7800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-4300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-7500</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7646,8 +7879,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7735,8 +7969,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7824,8 +8061,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7913,8 +8153,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8002,271 +8245,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E100" s="3">
         <v>6800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>16500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-79200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>44000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>56100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>32100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-41200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-22100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-34200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-32900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-53700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>112300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-66300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>36300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-172400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-71700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>12000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-45200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-162900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>28500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-22000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-92600</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>12500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-2300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-10600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>10800</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E102" s="3">
         <v>4700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-71800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>30400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-88800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>68800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-71300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-63500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>46400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>32500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>44500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>52700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-79400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-44600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-131800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>173100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>64300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-152900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>23500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>61400</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>4100</v>
       </c>
     </row>
